--- a/static/download/2018/RP2_ERT_CEF_2018.xlsx
+++ b/static/download/2018/RP2_ERT_CEF_2018.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="98">
   <si>
     <t>Data source</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Further information</t>
   </si>
   <si>
+    <t>Metadata - Single European Sky Portal</t>
+  </si>
+  <si>
     <t>Release date</t>
   </si>
   <si>
@@ -37,7 +40,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>NSA-PRU-Support@eurocontrol.int</t>
+    <t>pru-support@eurocontrol.int</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -103,6 +106,18 @@
     <t>FAB CE</t>
   </si>
   <si>
+    <t>FABEC</t>
+  </si>
+  <si>
+    <t>NEFAB</t>
+  </si>
+  <si>
+    <t>SW FAB</t>
+  </si>
+  <si>
+    <t>UK-Ireland FAB</t>
+  </si>
+  <si>
     <t>En-route costs (nominal local currency)</t>
   </si>
   <si>
@@ -136,7 +151,7 @@
     <t>Inflation % (A)</t>
   </si>
   <si>
-    <t>Inflation % (A/D)</t>
+    <t>Inflation % (A-D)</t>
   </si>
   <si>
     <t>Inflation index (D)</t>
@@ -145,22 +160,10 @@
     <t>Inflation index (A)</t>
   </si>
   <si>
-    <t>Inflation index (A/D)</t>
+    <t>Inflation index (A-D)</t>
   </si>
   <si>
     <t>Lithuania</t>
-  </si>
-  <si>
-    <t>FABEC</t>
-  </si>
-  <si>
-    <t>NEFAB</t>
-  </si>
-  <si>
-    <t>SW FAB</t>
-  </si>
-  <si>
-    <t>UK-Ireland FAB</t>
   </si>
   <si>
     <t>Poland</t>
@@ -175,34 +178,10 @@
     <t>Greece</t>
   </si>
   <si>
-    <t>Change date</t>
-  </si>
-  <si>
     <t>Italy</t>
   </si>
   <si>
-    <t>Entity</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Romania, Portugal</t>
-  </si>
-  <si>
     <t>Malta</t>
-  </si>
-  <si>
-    <t>Determined costs and SU updated</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Updated with actual data </t>
   </si>
   <si>
     <t>Bulgaria</t>
@@ -306,6 +285,30 @@
   <si>
     <t>GBP</t>
   </si>
+  <si>
+    <t>Change date</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Romania, Portugal</t>
+  </si>
+  <si>
+    <t>Determined costs and SU updated</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated with actual data </t>
+  </si>
 </sst>
 </file>
 
@@ -317,7 +320,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -347,9 +350,9 @@
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
-      <color rgb="FF396EA2"/>
-      <name val="Calibri"/>
+      <sz val="9.0"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -364,7 +367,7 @@
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="9.0"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
     </font>
@@ -384,12 +387,6 @@
       <b/>
       <sz val="8.0"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9.0"/>
-      <color rgb="FF980000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -414,15 +411,26 @@
     </font>
     <font>
       <sz val="8.0"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.0"/>
+      <color rgb="FF980000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="8.0"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="8.0"/>
-      <color rgb="FFC00000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="9.0"/>
@@ -533,6 +541,12 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -542,12 +556,6 @@
       <bottom/>
     </border>
     <border>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom/>
@@ -635,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -654,16 +662,16 @@
     <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
@@ -683,7 +691,7 @@
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="10" fillId="3" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
@@ -700,105 +708,108 @@
     <xf borderId="12" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="15" fillId="6" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="15" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="7" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="15" fillId="3" fontId="17" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="3" fontId="16" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="15" fillId="2" fontId="17" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="2" fontId="16" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="15" fillId="3" fontId="17" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="3" fontId="16" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="15" fillId="2" fontId="17" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="2" fontId="16" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="17" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="15" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="16" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="17" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="17" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="19" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="15" fillId="8" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="15" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="16" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="16" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="21" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="22" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="23" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="24" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="25" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="17" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="16" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -836,11 +847,11 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.0"/>
-    <col customWidth="1" min="2" max="2" width="15.57"/>
-    <col customWidth="1" min="3" max="3" width="12.29"/>
+    <col customWidth="1" min="1" max="1" width="8.75"/>
+    <col customWidth="1" min="2" max="2" width="13.63"/>
+    <col customWidth="1" min="3" max="3" width="10.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -859,9 +870,8 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="str">
-        <f>HYPERLINK("http://prudata.webfactional.com/wiki/index.php/RP2_(2015-2019)","RP2 meta data")</f>
-        <v>RP2 meta data</v>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="8"/>
@@ -886,22 +896,22 @@
     </row>
     <row r="2">
       <c r="A2" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="12">
         <v>43941.0</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="14">
         <v>43465.0</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="8"/>
@@ -954,7 +964,7 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -28868,7 +28878,10 @@
   <mergeCells count="1">
     <mergeCell ref="A4:G4"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="F1"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -28880,22 +28893,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.29"/>
-    <col customWidth="1" min="2" max="2" width="0.86"/>
-    <col customWidth="1" min="3" max="3" width="11.43"/>
-    <col customWidth="1" min="4" max="4" width="10.43"/>
-    <col customWidth="1" min="5" max="5" width="10.0"/>
-    <col customWidth="1" min="6" max="6" width="0.86"/>
-    <col customWidth="1" min="7" max="7" width="8.57"/>
-    <col customWidth="1" min="8" max="8" width="9.43"/>
-    <col customWidth="1" min="9" max="9" width="9.57"/>
-    <col customWidth="1" min="10" max="10" width="10.86"/>
-    <col customWidth="1" min="11" max="11" width="0.86"/>
-    <col customWidth="1" min="12" max="12" width="12.43"/>
-    <col customWidth="1" min="13" max="13" width="12.29"/>
-    <col customWidth="1" min="14" max="14" width="9.29"/>
+    <col customWidth="1" min="1" max="1" width="15.13"/>
+    <col customWidth="1" min="2" max="2" width="0.75"/>
+    <col customWidth="1" min="3" max="3" width="10.0"/>
+    <col customWidth="1" min="4" max="4" width="9.13"/>
+    <col customWidth="1" min="5" max="5" width="8.75"/>
+    <col customWidth="1" min="6" max="6" width="0.75"/>
+    <col customWidth="1" min="7" max="7" width="7.5"/>
+    <col customWidth="1" min="8" max="8" width="8.25"/>
+    <col customWidth="1" min="9" max="9" width="8.38"/>
+    <col customWidth="1" min="10" max="10" width="9.5"/>
+    <col customWidth="1" min="11" max="11" width="0.75"/>
+    <col customWidth="1" min="12" max="12" width="10.88"/>
+    <col customWidth="1" min="13" max="13" width="10.75"/>
+    <col customWidth="1" min="14" max="14" width="8.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
@@ -28904,477 +28917,477 @@
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
+        <v>10</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
       <c r="F1" s="20"/>
-      <c r="G1" s="25" t="s">
-        <v>10</v>
+      <c r="G1" s="24" t="s">
+        <v>11</v>
       </c>
       <c r="K1" s="20"/>
-      <c r="L1" s="25" t="s">
-        <v>11</v>
+      <c r="L1" s="24" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1">
-      <c r="A2" s="26" t="s">
-        <v>12</v>
+      <c r="A2" s="25" t="s">
+        <v>13</v>
       </c>
       <c r="B2" s="20"/>
-      <c r="C2" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>15</v>
       </c>
+      <c r="E2" s="26" t="s">
+        <v>16</v>
+      </c>
       <c r="F2" s="20"/>
-      <c r="G2" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="I2" s="27" t="s">
         <v>19</v>
       </c>
+      <c r="J2" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="K2" s="20"/>
-      <c r="L2" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="M2" s="27" t="s">
         <v>22</v>
       </c>
+      <c r="N2" s="27" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="29" t="s">
-        <v>23</v>
+      <c r="A3" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="30">
+      <c r="C3" s="29">
         <v>4960672.0</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="29">
         <v>5268786.0</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
         <f t="shared" ref="E3:E11" si="2">D3/C3-1</f>
         <v>0.06211134298</v>
       </c>
       <c r="F3" s="20"/>
-      <c r="G3" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="30">
+      <c r="G3" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="29">
         <v>1.9219186E8</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="29">
         <v>1.87183274E8</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="30">
         <f t="shared" ref="J3:J11" si="3">I3/H3-1</f>
         <v>-0.02606034407</v>
       </c>
       <c r="K3" s="20"/>
-      <c r="L3" s="33">
+      <c r="L3" s="32">
         <f t="shared" ref="L3:M3" si="1">H3/C3</f>
         <v>38.7431098</v>
       </c>
-      <c r="M3" s="33">
+      <c r="M3" s="32">
         <f t="shared" si="1"/>
         <v>35.5268318</v>
       </c>
-      <c r="N3" s="31">
+      <c r="N3" s="30">
         <f t="shared" ref="N3:N11" si="5">M3/L3-1</f>
         <v>-0.08301548386</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="29" t="s">
-        <v>25</v>
+      <c r="A4" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="30">
+      <c r="C4" s="29">
         <v>1.646841E7</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="29">
         <v>1.7866173E7</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="30">
         <f t="shared" si="2"/>
         <v>0.08487540692</v>
       </c>
       <c r="F4" s="20"/>
-      <c r="G4" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="30">
+      <c r="G4" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="29">
         <v>8.24480946E8</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="29">
         <v>7.47827484E8</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="30">
         <f t="shared" si="3"/>
         <v>-0.09297178106</v>
       </c>
       <c r="K4" s="20"/>
-      <c r="L4" s="33">
+      <c r="L4" s="32">
         <f t="shared" ref="L4:M4" si="4">H4/C4</f>
         <v>50.06439274</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="32">
         <f t="shared" si="4"/>
         <v>41.85717243</v>
       </c>
-      <c r="N4" s="31">
+      <c r="N4" s="30">
         <f t="shared" si="5"/>
         <v>-0.1639332838</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="29" t="s">
-        <v>26</v>
+      <c r="A5" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="B5" s="20"/>
-      <c r="C5" s="30">
+      <c r="C5" s="29">
         <v>8686824.0</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="29">
         <v>9038372.0</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="30">
         <f t="shared" si="2"/>
         <v>0.04046910586</v>
       </c>
       <c r="F5" s="20"/>
-      <c r="G5" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="30">
+      <c r="G5" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="29">
         <v>2.66250489E8</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="29">
         <v>2.49653688E8</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="30">
         <f t="shared" si="3"/>
         <v>-0.06233528833</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="33">
+      <c r="L5" s="32">
         <f t="shared" ref="L5:M5" si="6">H5/C5</f>
         <v>30.64992326</v>
       </c>
-      <c r="M5" s="33">
+      <c r="M5" s="32">
         <f t="shared" si="6"/>
         <v>27.62153273</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="30">
         <f t="shared" si="5"/>
         <v>-0.09880581135</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="29" t="s">
-        <v>27</v>
+      <c r="A6" s="28" t="s">
+        <v>28</v>
       </c>
       <c r="B6" s="20"/>
-      <c r="C6" s="30">
+      <c r="C6" s="29">
         <v>4991000.0</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="29">
         <v>5521860.0</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="30">
         <f t="shared" si="2"/>
         <v>0.1063634542</v>
       </c>
       <c r="F6" s="20"/>
-      <c r="G6" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="30">
+      <c r="G6" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="29">
         <v>2.481914E8</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="29">
         <v>2.69013053E8</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="30">
         <f t="shared" si="3"/>
         <v>0.08389353136</v>
       </c>
       <c r="K6" s="20"/>
-      <c r="L6" s="33">
+      <c r="L6" s="32">
         <f t="shared" ref="L6:M6" si="7">H6/C6</f>
         <v>49.72779002</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="32">
         <f t="shared" si="7"/>
         <v>48.71783294</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="30">
         <f t="shared" si="5"/>
         <v>-0.02030971176</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="29" t="s">
-        <v>28</v>
+      <c r="A7" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="B7" s="20"/>
-      <c r="C7" s="30">
+      <c r="C7" s="29">
         <v>1.1819594E7</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="29">
         <v>1.3338271E7</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="30">
         <f t="shared" si="2"/>
         <v>0.1284880851</v>
       </c>
       <c r="F7" s="20"/>
-      <c r="G7" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="30">
+      <c r="G7" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="29">
         <v>5.26540845E8</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="29">
         <v>5.40055215E8</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="30">
         <f t="shared" si="3"/>
         <v>0.02566632794</v>
       </c>
       <c r="K7" s="20"/>
-      <c r="L7" s="33">
+      <c r="L7" s="32">
         <f t="shared" ref="L7:M7" si="8">H7/C7</f>
         <v>44.54813296</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="32">
         <f t="shared" si="8"/>
         <v>40.48914698</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="30">
         <f t="shared" si="5"/>
         <v>-0.0911146148</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="29" t="s">
-        <v>45</v>
+      <c r="A8" s="28" t="s">
+        <v>30</v>
       </c>
       <c r="B8" s="20"/>
-      <c r="C8" s="30">
+      <c r="C8" s="29">
         <v>4.0653889E7</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="29">
         <v>4.4158869E7</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="30">
         <f t="shared" si="2"/>
         <v>0.086215122</v>
       </c>
       <c r="F8" s="20"/>
-      <c r="G8" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="30">
+      <c r="G8" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="29">
         <v>2.426710708E9</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="29">
         <v>2.432451768E9</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="30">
         <f t="shared" si="3"/>
         <v>0.002365778492</v>
       </c>
       <c r="K8" s="20"/>
-      <c r="L8" s="33">
+      <c r="L8" s="32">
         <f t="shared" ref="L8:M8" si="9">H8/C8</f>
         <v>59.69196964</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="32">
         <f t="shared" si="9"/>
         <v>55.0841048</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="30">
         <f t="shared" si="5"/>
         <v>-0.07719404915</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="29" t="s">
-        <v>46</v>
+      <c r="A9" s="28" t="s">
+        <v>31</v>
       </c>
       <c r="B9" s="20"/>
-      <c r="C9" s="30">
+      <c r="C9" s="29">
         <v>5065317.0</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="29">
         <v>5320648.0</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="30">
         <f t="shared" si="2"/>
         <v>0.050407704</v>
       </c>
       <c r="F9" s="20"/>
-      <c r="G9" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="30">
+      <c r="G9" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="29">
         <v>1.84021642E8</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="29">
         <v>1.73391029E8</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="30">
         <f t="shared" si="3"/>
         <v>-0.05776827597</v>
       </c>
       <c r="K9" s="20"/>
-      <c r="L9" s="33">
+      <c r="L9" s="32">
         <f t="shared" ref="L9:M9" si="10">H9/C9</f>
         <v>36.32973849</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="32">
         <f t="shared" si="10"/>
         <v>32.58832928</v>
       </c>
-      <c r="N9" s="31">
+      <c r="N9" s="30">
         <f t="shared" si="5"/>
         <v>-0.1029847549</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="29" t="s">
-        <v>47</v>
+      <c r="A10" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="B10" s="20"/>
-      <c r="C10" s="30">
+      <c r="C10" s="29">
         <v>1.4560148E7</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="29">
         <v>1.6702568E7</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="30">
         <f t="shared" si="2"/>
         <v>0.1471427351</v>
       </c>
       <c r="F10" s="20"/>
-      <c r="G10" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="30">
+      <c r="G10" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="29">
         <v>7.5413923E8</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="29">
         <v>7.27659674E8</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="30">
         <f t="shared" si="3"/>
         <v>-0.03511229087</v>
       </c>
       <c r="K10" s="20"/>
-      <c r="L10" s="33">
+      <c r="L10" s="32">
         <f t="shared" ref="L10:M10" si="11">H10/C10</f>
         <v>51.7947503</v>
       </c>
-      <c r="M10" s="33">
+      <c r="M10" s="32">
         <f t="shared" si="11"/>
         <v>43.56573636</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="30">
         <f t="shared" si="5"/>
         <v>-0.1588773745</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="29" t="s">
-        <v>48</v>
+      <c r="A11" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="B11" s="20"/>
-      <c r="C11" s="30">
+      <c r="C11" s="29">
         <v>1.4942878E7</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="29">
         <v>1.6744036E7</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="30">
         <f t="shared" si="2"/>
         <v>0.120536218</v>
       </c>
       <c r="F11" s="20"/>
-      <c r="G11" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="30">
+      <c r="G11" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="29">
         <v>7.30997395E8</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="29">
         <v>7.50380739E8</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="30">
         <f t="shared" si="3"/>
         <v>0.02651629696</v>
       </c>
       <c r="K11" s="20"/>
-      <c r="L11" s="33">
+      <c r="L11" s="32">
         <f t="shared" ref="L11:M11" si="12">H11/C11</f>
         <v>48.91945146</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="32">
         <f t="shared" si="12"/>
         <v>44.81480684</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="30">
         <f t="shared" si="5"/>
         <v>-0.08390618663</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
+      <c r="A13" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -29397,3407 +29410,3407 @@
       <selection activeCell="D2" sqref="D2" pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.0"/>
-    <col customWidth="1" min="2" max="2" width="13.29"/>
-    <col customWidth="1" min="3" max="3" width="0.86"/>
-    <col customWidth="1" min="4" max="4" width="10.71"/>
-    <col customWidth="1" min="5" max="5" width="10.0"/>
-    <col customWidth="1" min="6" max="6" width="7.71"/>
-    <col customWidth="1" min="7" max="7" width="0.86"/>
-    <col customWidth="1" min="8" max="8" width="5.57"/>
-    <col customWidth="1" min="9" max="9" width="9.71"/>
-    <col customWidth="1" min="10" max="10" width="9.29"/>
-    <col customWidth="1" min="11" max="11" width="8.29"/>
-    <col customWidth="1" min="12" max="12" width="0.86"/>
-    <col customWidth="1" min="13" max="13" width="9.0"/>
-    <col customWidth="1" min="14" max="14" width="8.86"/>
-    <col customWidth="1" min="15" max="15" width="9.29"/>
-    <col customWidth="1" min="16" max="16" width="0.86"/>
-    <col customWidth="1" min="17" max="18" width="8.43"/>
-    <col customWidth="1" min="19" max="19" width="10.29"/>
-    <col customWidth="1" min="20" max="20" width="0.86"/>
-    <col customWidth="1" min="21" max="21" width="11.0"/>
-    <col customWidth="1" min="22" max="22" width="10.14"/>
-    <col customWidth="1" min="23" max="23" width="10.29"/>
-    <col customWidth="1" min="24" max="24" width="0.86"/>
-    <col customWidth="1" min="25" max="25" width="12.0"/>
-    <col customWidth="1" min="26" max="26" width="11.71"/>
-    <col customWidth="1" min="27" max="27" width="10.29"/>
-    <col customWidth="1" min="28" max="28" width="0.86"/>
-    <col customWidth="1" min="29" max="29" width="6.57"/>
-    <col customWidth="1" min="30" max="30" width="9.29"/>
-    <col customWidth="1" min="31" max="31" width="10.29"/>
-    <col customWidth="1" min="32" max="32" width="13.0"/>
-    <col customWidth="1" min="33" max="33" width="0.86"/>
-    <col customWidth="1" min="34" max="36" width="13.0"/>
+    <col customWidth="1" min="1" max="1" width="15.75"/>
+    <col customWidth="1" min="2" max="2" width="11.63"/>
+    <col customWidth="1" min="3" max="3" width="0.75"/>
+    <col customWidth="1" min="4" max="4" width="9.38"/>
+    <col customWidth="1" min="5" max="5" width="8.75"/>
+    <col customWidth="1" min="6" max="6" width="6.75"/>
+    <col customWidth="1" min="7" max="7" width="0.75"/>
+    <col customWidth="1" min="8" max="8" width="4.88"/>
+    <col customWidth="1" min="9" max="9" width="8.5"/>
+    <col customWidth="1" min="10" max="10" width="8.13"/>
+    <col customWidth="1" min="11" max="11" width="7.25"/>
+    <col customWidth="1" min="12" max="12" width="0.75"/>
+    <col customWidth="1" min="13" max="13" width="7.88"/>
+    <col customWidth="1" min="14" max="14" width="7.75"/>
+    <col customWidth="1" min="15" max="15" width="8.13"/>
+    <col customWidth="1" min="16" max="16" width="0.75"/>
+    <col customWidth="1" min="17" max="18" width="7.38"/>
+    <col customWidth="1" min="19" max="19" width="9.0"/>
+    <col customWidth="1" min="20" max="20" width="0.75"/>
+    <col customWidth="1" min="21" max="21" width="9.63"/>
+    <col customWidth="1" min="22" max="22" width="8.88"/>
+    <col customWidth="1" min="23" max="23" width="9.0"/>
+    <col customWidth="1" min="24" max="24" width="0.75"/>
+    <col customWidth="1" min="25" max="25" width="10.5"/>
+    <col customWidth="1" min="26" max="26" width="10.25"/>
+    <col customWidth="1" min="27" max="27" width="9.0"/>
+    <col customWidth="1" min="28" max="28" width="0.75"/>
+    <col customWidth="1" min="29" max="29" width="5.75"/>
+    <col customWidth="1" min="30" max="30" width="8.13"/>
+    <col customWidth="1" min="31" max="31" width="9.0"/>
+    <col customWidth="1" min="32" max="32" width="11.38"/>
+    <col customWidth="1" min="33" max="33" width="0.75"/>
+    <col customWidth="1" min="34" max="36" width="11.38"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="1">
       <c r="A1" s="19">
         <v>2018.0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="20"/>
       <c r="D1" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
+        <v>10</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="20"/>
-      <c r="H1" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="H1" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
       <c r="L1" s="20"/>
-      <c r="M1" s="25" t="s">
-        <v>30</v>
+      <c r="M1" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="P1" s="20"/>
-      <c r="Q1" s="25" t="s">
-        <v>31</v>
+      <c r="Q1" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="T1" s="20"/>
-      <c r="U1" s="25" t="s">
-        <v>32</v>
+      <c r="U1" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="X1" s="20"/>
-      <c r="Y1" s="25" t="s">
-        <v>33</v>
+      <c r="Y1" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="AB1" s="20"/>
-      <c r="AC1" s="25" t="s">
-        <v>10</v>
+      <c r="AC1" s="24" t="s">
+        <v>11</v>
       </c>
       <c r="AG1" s="20"/>
-      <c r="AH1" s="25" t="s">
-        <v>11</v>
+      <c r="AH1" s="24" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1">
-      <c r="A2" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>12</v>
+      <c r="A2" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="20"/>
-      <c r="D2" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>15</v>
       </c>
+      <c r="F2" s="26" t="s">
+        <v>16</v>
+      </c>
       <c r="G2" s="20"/>
-      <c r="H2" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>37</v>
+      <c r="H2" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>42</v>
       </c>
       <c r="L2" s="20"/>
-      <c r="M2" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>40</v>
+      <c r="M2" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="38" t="s">
+        <v>45</v>
       </c>
       <c r="P2" s="20"/>
-      <c r="Q2" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>43</v>
+      <c r="Q2" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="38" t="s">
+        <v>48</v>
       </c>
       <c r="T2" s="20"/>
-      <c r="U2" s="35" t="s">
+      <c r="U2" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA2" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="35" t="s">
+      <c r="AD2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="35" t="s">
+      <c r="AE2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="35" t="s">
+      <c r="AF2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="35" t="s">
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="35" t="s">
+      <c r="AI2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD2" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE2" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF2" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI2" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ2" s="28" t="s">
-        <v>22</v>
+      <c r="AJ2" s="27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>23</v>
+      <c r="A3" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="20"/>
-      <c r="D3" s="38">
+      <c r="D3" s="41">
         <v>541672.0</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="41">
         <v>602689.0</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="42">
         <f t="shared" ref="F3:F32" si="3">E3/D3-1</f>
         <v>0.1126456601</v>
       </c>
       <c r="G3" s="20"/>
-      <c r="H3" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="38">
+      <c r="H3" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="41">
         <v>2.5093574E7</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="41">
         <v>2.255498E7</v>
       </c>
-      <c r="K3" s="39">
+      <c r="K3" s="42">
         <f t="shared" ref="K3:K32" si="4">J3/I3-1</f>
         <v>-0.1011651031</v>
       </c>
       <c r="L3" s="20"/>
-      <c r="M3" s="41">
+      <c r="M3" s="44">
         <v>0.022</v>
       </c>
-      <c r="N3" s="41">
+      <c r="N3" s="44">
         <v>0.025</v>
       </c>
-      <c r="O3" s="39">
+      <c r="O3" s="42">
         <f t="shared" ref="O3:O32" si="5">N3-M3</f>
         <v>0.003</v>
       </c>
       <c r="P3" s="20"/>
-      <c r="Q3" s="42">
+      <c r="Q3" s="45">
         <v>121.0</v>
       </c>
-      <c r="R3" s="42">
+      <c r="R3" s="45">
         <v>117.2</v>
       </c>
-      <c r="S3" s="43">
+      <c r="S3" s="46">
         <v>-3.83</v>
       </c>
       <c r="T3" s="20"/>
-      <c r="U3" s="38">
+      <c r="U3" s="41">
         <v>2.0737566E7</v>
       </c>
-      <c r="V3" s="38">
+      <c r="V3" s="41">
         <v>1.9248723E7</v>
       </c>
-      <c r="W3" s="39">
+      <c r="W3" s="42">
         <f t="shared" ref="W3:W32" si="6">V3/U3-1</f>
         <v>-0.07179449121</v>
       </c>
       <c r="X3" s="20"/>
-      <c r="Y3" s="44">
+      <c r="Y3" s="47">
         <f t="shared" ref="Y3:Z3" si="1">U3/D3</f>
         <v>38.28436028</v>
       </c>
-      <c r="Z3" s="44">
+      <c r="Z3" s="47">
         <f t="shared" si="1"/>
         <v>31.93806922</v>
       </c>
-      <c r="AA3" s="39">
+      <c r="AA3" s="42">
         <f t="shared" ref="AA3:AA32" si="8">Z3/Y3-1</f>
         <v>-0.1657671961</v>
       </c>
       <c r="AB3" s="20"/>
-      <c r="AC3" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD3" s="38">
+      <c r="AC3" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD3" s="41">
         <v>2.0737566E7</v>
       </c>
-      <c r="AE3" s="38">
+      <c r="AE3" s="41">
         <v>1.9248723E7</v>
       </c>
-      <c r="AF3" s="39">
+      <c r="AF3" s="42">
         <f t="shared" ref="AF3:AF32" si="9">AE3/AD3-1</f>
         <v>-0.07179449121</v>
       </c>
       <c r="AG3" s="20"/>
-      <c r="AH3" s="44">
+      <c r="AH3" s="47">
         <f t="shared" ref="AH3:AI3" si="2">AD3/D3</f>
         <v>38.28436028</v>
       </c>
-      <c r="AI3" s="44">
+      <c r="AI3" s="47">
         <f t="shared" si="2"/>
         <v>31.93806922</v>
       </c>
-      <c r="AJ3" s="39">
+      <c r="AJ3" s="42">
         <f t="shared" ref="AJ3:AJ32" si="11">AI3/AH3-1</f>
         <v>-0.1657671961</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>23</v>
+      <c r="A4" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>24</v>
       </c>
       <c r="C4" s="20"/>
-      <c r="D4" s="38">
+      <c r="D4" s="41">
         <v>4419000.0</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="41">
         <v>4666097.0</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="42">
         <f t="shared" si="3"/>
         <v>0.05591694954</v>
       </c>
       <c r="G4" s="20"/>
-      <c r="H4" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="38">
+      <c r="H4" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="41">
         <v>8.40660505E8</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="41">
         <v>8.2607986E8</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="42">
         <f t="shared" si="4"/>
         <v>-0.01734427264</v>
       </c>
       <c r="L4" s="20"/>
-      <c r="M4" s="41">
+      <c r="M4" s="44">
         <v>0.019</v>
       </c>
-      <c r="N4" s="41">
+      <c r="N4" s="44">
         <v>0.012</v>
       </c>
-      <c r="O4" s="39">
+      <c r="O4" s="42">
         <f t="shared" si="5"/>
         <v>-0.007</v>
       </c>
       <c r="P4" s="20"/>
-      <c r="Q4" s="42">
+      <c r="Q4" s="45">
         <v>113.4</v>
       </c>
-      <c r="R4" s="42">
+      <c r="R4" s="45">
         <v>113.8</v>
       </c>
-      <c r="S4" s="43">
+      <c r="S4" s="46">
         <v>0.37</v>
       </c>
       <c r="T4" s="20"/>
-      <c r="U4" s="38">
+      <c r="U4" s="41">
         <v>7.41339221E8</v>
       </c>
-      <c r="V4" s="38">
+      <c r="V4" s="41">
         <v>7.26120447E8</v>
       </c>
-      <c r="W4" s="39">
+      <c r="W4" s="42">
         <f t="shared" si="6"/>
         <v>-0.02052875872</v>
       </c>
       <c r="X4" s="20"/>
-      <c r="Y4" s="44">
+      <c r="Y4" s="47">
         <f t="shared" ref="Y4:Z4" si="7">U4/D4</f>
         <v>167.7617608</v>
       </c>
-      <c r="Z4" s="44">
+      <c r="Z4" s="47">
         <f t="shared" si="7"/>
         <v>155.6162349</v>
       </c>
-      <c r="AA4" s="39">
+      <c r="AA4" s="42">
         <f t="shared" si="8"/>
         <v>-0.07239746298</v>
       </c>
       <c r="AB4" s="20"/>
-      <c r="AC4" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD4" s="38">
+      <c r="AC4" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD4" s="41">
         <v>1.71454294E8</v>
       </c>
-      <c r="AE4" s="38">
+      <c r="AE4" s="41">
         <v>1.6793455E8</v>
       </c>
-      <c r="AF4" s="39">
+      <c r="AF4" s="42">
         <f t="shared" si="9"/>
         <v>-0.02052875969</v>
       </c>
       <c r="AG4" s="20"/>
-      <c r="AH4" s="44">
+      <c r="AH4" s="47">
         <f t="shared" ref="AH4:AI4" si="10">AD4/D4</f>
         <v>38.79934239</v>
       </c>
-      <c r="AI4" s="44">
+      <c r="AI4" s="47">
         <f t="shared" si="10"/>
         <v>35.9903684</v>
       </c>
-      <c r="AJ4" s="39">
+      <c r="AJ4" s="42">
         <f t="shared" si="11"/>
         <v>-0.07239746389</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>25</v>
+      <c r="A5" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>26</v>
       </c>
       <c r="C5" s="20"/>
-      <c r="D5" s="38">
+      <c r="D5" s="41">
         <v>1489197.0</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="41">
         <v>1897492.0</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="42">
         <f t="shared" si="3"/>
         <v>0.274171248</v>
       </c>
       <c r="G5" s="20"/>
-      <c r="H5" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="38">
+      <c r="H5" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="41">
         <v>5.7610277E7</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="41">
         <v>5.2087068E7</v>
       </c>
-      <c r="K5" s="39">
+      <c r="K5" s="42">
         <f t="shared" si="4"/>
         <v>-0.09587193965</v>
       </c>
       <c r="L5" s="20"/>
-      <c r="M5" s="41">
+      <c r="M5" s="44">
         <v>0.018</v>
       </c>
-      <c r="N5" s="41">
+      <c r="N5" s="44">
         <v>0.008</v>
       </c>
-      <c r="O5" s="39">
+      <c r="O5" s="42">
         <f t="shared" si="5"/>
         <v>-0.01</v>
       </c>
       <c r="P5" s="20"/>
-      <c r="Q5" s="42">
+      <c r="Q5" s="45">
         <v>118.9</v>
       </c>
-      <c r="R5" s="42">
+      <c r="R5" s="45">
         <v>108.2</v>
       </c>
-      <c r="S5" s="43">
+      <c r="S5" s="46">
         <v>-10.73</v>
       </c>
       <c r="T5" s="20"/>
-      <c r="U5" s="38">
+      <c r="U5" s="41">
         <v>4.845956E7</v>
       </c>
-      <c r="V5" s="38">
+      <c r="V5" s="41">
         <v>4.8160943E7</v>
       </c>
-      <c r="W5" s="39">
+      <c r="W5" s="42">
         <f t="shared" si="6"/>
         <v>-0.006162189669</v>
       </c>
       <c r="X5" s="20"/>
-      <c r="Y5" s="44">
+      <c r="Y5" s="47">
         <f t="shared" ref="Y5:Z5" si="12">U5/D5</f>
         <v>32.54073168</v>
       </c>
-      <c r="Z5" s="44">
+      <c r="Z5" s="47">
         <f t="shared" si="12"/>
         <v>25.38136814</v>
       </c>
-      <c r="AA5" s="39">
+      <c r="AA5" s="42">
         <f t="shared" si="8"/>
         <v>-0.2200123713</v>
       </c>
       <c r="AB5" s="20"/>
-      <c r="AC5" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD5" s="38">
+      <c r="AC5" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD5" s="41">
         <v>4.845956E7</v>
       </c>
-      <c r="AE5" s="38">
+      <c r="AE5" s="41">
         <v>4.8160943E7</v>
       </c>
-      <c r="AF5" s="39">
+      <c r="AF5" s="42">
         <f t="shared" si="9"/>
         <v>-0.006162189669</v>
       </c>
       <c r="AG5" s="20"/>
-      <c r="AH5" s="44">
+      <c r="AH5" s="47">
         <f t="shared" ref="AH5:AI5" si="13">AD5/D5</f>
         <v>32.54073168</v>
       </c>
-      <c r="AI5" s="44">
+      <c r="AI5" s="47">
         <f t="shared" si="13"/>
         <v>25.38136814</v>
       </c>
-      <c r="AJ5" s="39">
+      <c r="AJ5" s="42">
         <f t="shared" si="11"/>
         <v>-0.2200123713</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>25</v>
+      <c r="A6" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>26</v>
       </c>
       <c r="C6" s="20"/>
-      <c r="D6" s="38">
+      <c r="D6" s="41">
         <v>4492622.0</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="41">
         <v>5600105.0</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="42">
         <f t="shared" si="3"/>
         <v>0.2465115026</v>
       </c>
       <c r="G6" s="20"/>
-      <c r="H6" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="38">
+      <c r="H6" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="41">
         <v>1.5693978E8</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="41">
         <v>1.35813107E8</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="42">
         <f t="shared" si="4"/>
         <v>-0.1346164306</v>
       </c>
       <c r="L6" s="20"/>
-      <c r="M6" s="41">
+      <c r="M6" s="44">
         <v>0.013</v>
       </c>
-      <c r="N6" s="41">
+      <c r="N6" s="44">
         <v>0.008</v>
       </c>
-      <c r="O6" s="39">
+      <c r="O6" s="42">
         <f t="shared" si="5"/>
         <v>-0.005</v>
       </c>
       <c r="P6" s="20"/>
-      <c r="Q6" s="42">
+      <c r="Q6" s="45">
         <v>111.8</v>
       </c>
-      <c r="R6" s="42">
+      <c r="R6" s="45">
         <v>107.4</v>
       </c>
-      <c r="S6" s="43">
+      <c r="S6" s="46">
         <v>-4.45</v>
       </c>
       <c r="T6" s="20"/>
-      <c r="U6" s="38">
+      <c r="U6" s="41">
         <v>1.40350008E8</v>
       </c>
-      <c r="V6" s="38">
+      <c r="V6" s="41">
         <v>1.26490065E8</v>
       </c>
-      <c r="W6" s="39">
+      <c r="W6" s="42">
         <f t="shared" si="6"/>
         <v>-0.09875270545</v>
       </c>
       <c r="X6" s="20"/>
-      <c r="Y6" s="44">
+      <c r="Y6" s="47">
         <f t="shared" ref="Y6:Z6" si="14">U6/D6</f>
         <v>31.24011056</v>
       </c>
-      <c r="Z6" s="44">
+      <c r="Z6" s="47">
         <f t="shared" si="14"/>
         <v>22.5870881</v>
       </c>
-      <c r="AA6" s="39">
+      <c r="AA6" s="42">
         <f t="shared" si="8"/>
         <v>-0.2769843739</v>
       </c>
       <c r="AB6" s="20"/>
-      <c r="AC6" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD6" s="38">
+      <c r="AC6" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD6" s="41">
         <v>1.40350008E8</v>
       </c>
-      <c r="AE6" s="38">
+      <c r="AE6" s="41">
         <v>1.26490065E8</v>
       </c>
-      <c r="AF6" s="39">
+      <c r="AF6" s="42">
         <f t="shared" si="9"/>
         <v>-0.09875270545</v>
       </c>
       <c r="AG6" s="20"/>
-      <c r="AH6" s="44">
+      <c r="AH6" s="47">
         <f t="shared" ref="AH6:AI6" si="15">AD6/D6</f>
         <v>31.24011056</v>
       </c>
-      <c r="AI6" s="44">
+      <c r="AI6" s="47">
         <f t="shared" si="15"/>
         <v>22.5870881</v>
       </c>
-      <c r="AJ6" s="39">
+      <c r="AJ6" s="42">
         <f t="shared" si="11"/>
         <v>-0.2769843739</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>25</v>
+      <c r="B7" s="40" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="20"/>
-      <c r="D7" s="38">
+      <c r="D7" s="41">
         <v>9553591.0</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="41">
         <v>9433866.0</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="42">
         <f t="shared" si="3"/>
         <v>-0.01253193694</v>
       </c>
       <c r="G7" s="20"/>
-      <c r="H7" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="38">
+      <c r="H7" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="41">
         <v>7.10883664E8</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="41">
         <v>6.22647895E8</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="42">
         <f t="shared" si="4"/>
         <v>-0.12412125</v>
       </c>
       <c r="L7" s="20"/>
-      <c r="M7" s="41">
+      <c r="M7" s="44">
         <v>0.015</v>
       </c>
-      <c r="N7" s="41">
+      <c r="N7" s="44">
         <v>0.012</v>
       </c>
-      <c r="O7" s="39">
+      <c r="O7" s="42">
         <f t="shared" si="5"/>
         <v>-0.003</v>
       </c>
       <c r="P7" s="20"/>
-      <c r="Q7" s="42">
+      <c r="Q7" s="45">
         <v>115.2</v>
       </c>
-      <c r="R7" s="42">
+      <c r="R7" s="45">
         <v>112.4</v>
       </c>
-      <c r="S7" s="43">
+      <c r="S7" s="46">
         <v>-2.75</v>
       </c>
       <c r="T7" s="20"/>
-      <c r="U7" s="38">
+      <c r="U7" s="41">
         <v>6.17241895E8</v>
       </c>
-      <c r="V7" s="38">
+      <c r="V7" s="41">
         <v>5.53859684E8</v>
       </c>
-      <c r="W7" s="39">
+      <c r="W7" s="42">
         <f t="shared" si="6"/>
         <v>-0.1026861778</v>
       </c>
       <c r="X7" s="20"/>
-      <c r="Y7" s="44">
+      <c r="Y7" s="47">
         <f t="shared" ref="Y7:Z7" si="16">U7/D7</f>
         <v>64.60836506</v>
       </c>
-      <c r="Z7" s="44">
+      <c r="Z7" s="47">
         <f t="shared" si="16"/>
         <v>58.70972558</v>
       </c>
-      <c r="AA7" s="39">
+      <c r="AA7" s="42">
         <f t="shared" si="8"/>
         <v>-0.09129838652</v>
       </c>
       <c r="AB7" s="20"/>
-      <c r="AC7" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD7" s="38">
+      <c r="AC7" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD7" s="41">
         <v>6.17241895E8</v>
       </c>
-      <c r="AE7" s="38">
+      <c r="AE7" s="41">
         <v>5.53859684E8</v>
       </c>
-      <c r="AF7" s="39">
+      <c r="AF7" s="42">
         <f t="shared" si="9"/>
         <v>-0.1026861778</v>
       </c>
       <c r="AG7" s="20"/>
-      <c r="AH7" s="44">
+      <c r="AH7" s="47">
         <f t="shared" ref="AH7:AI7" si="17">AD7/D7</f>
         <v>64.60836506</v>
       </c>
-      <c r="AI7" s="44">
+      <c r="AI7" s="47">
         <f t="shared" si="17"/>
         <v>58.70972558</v>
       </c>
-      <c r="AJ7" s="39">
+      <c r="AJ7" s="42">
         <f t="shared" si="11"/>
         <v>-0.09129838652</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>25</v>
+      <c r="A8" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>26</v>
       </c>
       <c r="C8" s="20"/>
-      <c r="D8" s="38">
+      <c r="D8" s="41">
         <v>933000.0</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="41">
         <v>934710.0</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="42">
         <f t="shared" si="3"/>
         <v>0.001832797428</v>
       </c>
       <c r="G8" s="20"/>
-      <c r="H8" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="38">
+      <c r="H8" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="41">
         <v>2.1720523E7</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="41">
         <v>2.2321466E7</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="42">
         <f t="shared" si="4"/>
         <v>0.0276670594</v>
       </c>
       <c r="L8" s="20"/>
-      <c r="M8" s="41">
+      <c r="M8" s="44">
         <v>0.017</v>
       </c>
-      <c r="N8" s="41">
+      <c r="N8" s="44">
         <v>0.017</v>
       </c>
-      <c r="O8" s="39">
+      <c r="O8" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P8" s="20"/>
-      <c r="Q8" s="42">
+      <c r="Q8" s="45">
         <v>117.9</v>
       </c>
-      <c r="R8" s="42">
+      <c r="R8" s="45">
         <v>115.6</v>
       </c>
-      <c r="S8" s="43">
+      <c r="S8" s="46">
         <v>-2.3</v>
       </c>
       <c r="T8" s="20"/>
-      <c r="U8" s="38">
+      <c r="U8" s="41">
         <v>1.8429483E7</v>
       </c>
-      <c r="V8" s="38">
+      <c r="V8" s="41">
         <v>1.9316792E7</v>
       </c>
-      <c r="W8" s="39">
+      <c r="W8" s="42">
         <f t="shared" si="6"/>
         <v>0.04814616883</v>
       </c>
       <c r="X8" s="20"/>
-      <c r="Y8" s="44">
+      <c r="Y8" s="47">
         <f t="shared" ref="Y8:Z8" si="18">U8/D8</f>
         <v>19.75292926</v>
       </c>
-      <c r="Z8" s="44">
+      <c r="Z8" s="47">
         <f t="shared" si="18"/>
         <v>20.66608039</v>
       </c>
-      <c r="AA8" s="39">
+      <c r="AA8" s="42">
         <f t="shared" si="8"/>
         <v>0.04622864366</v>
       </c>
       <c r="AB8" s="20"/>
-      <c r="AC8" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD8" s="38">
+      <c r="AC8" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD8" s="41">
         <v>1.8429483E7</v>
       </c>
-      <c r="AE8" s="38">
+      <c r="AE8" s="41">
         <v>1.9316792E7</v>
       </c>
-      <c r="AF8" s="39">
+      <c r="AF8" s="42">
         <f t="shared" si="9"/>
         <v>0.04814616883</v>
       </c>
       <c r="AG8" s="20"/>
-      <c r="AH8" s="44">
+      <c r="AH8" s="47">
         <f t="shared" ref="AH8:AI8" si="19">AD8/D8</f>
         <v>19.75292926</v>
       </c>
-      <c r="AI8" s="44">
+      <c r="AI8" s="47">
         <f t="shared" si="19"/>
         <v>20.66608039</v>
       </c>
-      <c r="AJ8" s="39">
+      <c r="AJ8" s="42">
         <f t="shared" si="11"/>
         <v>0.04622864366</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>26</v>
+      <c r="A9" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>27</v>
       </c>
       <c r="C9" s="20"/>
-      <c r="D9" s="38">
+      <c r="D9" s="41">
         <v>3611824.0</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="41">
         <v>3937596.0</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="42">
         <f t="shared" si="3"/>
         <v>0.09019597854</v>
       </c>
       <c r="G9" s="20"/>
-      <c r="H9" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="38">
+      <c r="H9" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="41">
         <v>2.28283095E8</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="41">
         <v>2.10486527E8</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="42">
         <f t="shared" si="4"/>
         <v>-0.07795832626</v>
       </c>
       <c r="L9" s="20"/>
-      <c r="M9" s="41">
+      <c r="M9" s="44">
         <v>0.012</v>
       </c>
-      <c r="N9" s="41">
+      <c r="N9" s="44">
         <v>0.026</v>
       </c>
-      <c r="O9" s="39">
+      <c r="O9" s="42">
         <f t="shared" si="5"/>
         <v>0.014</v>
       </c>
       <c r="P9" s="20"/>
-      <c r="Q9" s="42">
+      <c r="Q9" s="45">
         <v>108.1</v>
       </c>
-      <c r="R9" s="42">
+      <c r="R9" s="45">
         <v>109.2</v>
       </c>
-      <c r="S9" s="43">
+      <c r="S9" s="46">
         <v>1.05</v>
       </c>
       <c r="T9" s="20"/>
-      <c r="U9" s="38">
+      <c r="U9" s="41">
         <v>2.11080244E8</v>
       </c>
-      <c r="V9" s="38">
+      <c r="V9" s="41">
         <v>1.92750918E8</v>
       </c>
-      <c r="W9" s="39">
+      <c r="W9" s="42">
         <f t="shared" si="6"/>
         <v>-0.08683581965</v>
       </c>
       <c r="X9" s="20"/>
-      <c r="Y9" s="44">
+      <c r="Y9" s="47">
         <f t="shared" ref="Y9:Z9" si="20">U9/D9</f>
         <v>58.4414534</v>
       </c>
-      <c r="Z9" s="44">
+      <c r="Z9" s="47">
         <f t="shared" si="20"/>
         <v>48.95142061</v>
       </c>
-      <c r="AA9" s="39">
+      <c r="AA9" s="42">
         <f t="shared" si="8"/>
         <v>-0.1623852974</v>
       </c>
       <c r="AB9" s="20"/>
-      <c r="AC9" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD9" s="38">
+      <c r="AC9" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD9" s="41">
         <v>1.07952869E8</v>
       </c>
-      <c r="AE9" s="38">
+      <c r="AE9" s="41">
         <v>9.8578693E7</v>
       </c>
-      <c r="AF9" s="39">
+      <c r="AF9" s="42">
         <f t="shared" si="9"/>
         <v>-0.08683582092</v>
       </c>
       <c r="AG9" s="20"/>
-      <c r="AH9" s="44">
+      <c r="AH9" s="47">
         <f t="shared" ref="AH9:AI9" si="21">AD9/D9</f>
         <v>29.88874015</v>
       </c>
-      <c r="AI9" s="44">
+      <c r="AI9" s="47">
         <f t="shared" si="21"/>
         <v>25.03524816</v>
       </c>
-      <c r="AJ9" s="39">
+      <c r="AJ9" s="42">
         <f t="shared" si="11"/>
         <v>-0.1623852986</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>26</v>
+      <c r="A10" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>27</v>
       </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="38">
+      <c r="D10" s="41">
         <v>5075000.0</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="41">
         <v>5100776.0</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="42">
         <f t="shared" si="3"/>
         <v>0.005079014778</v>
       </c>
       <c r="G10" s="20"/>
-      <c r="H10" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="38">
+      <c r="H10" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="41">
         <v>8.48257273E8</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="41">
         <v>8.0526847E8</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="42">
         <f t="shared" si="4"/>
         <v>-0.05067896777</v>
       </c>
       <c r="L10" s="20"/>
-      <c r="M10" s="41">
+      <c r="M10" s="44">
         <v>0.047</v>
       </c>
-      <c r="N10" s="41">
+      <c r="N10" s="44">
         <v>0.041</v>
       </c>
-      <c r="O10" s="39">
+      <c r="O10" s="42">
         <f t="shared" si="5"/>
         <v>-0.006</v>
       </c>
       <c r="P10" s="20"/>
-      <c r="Q10" s="42">
+      <c r="Q10" s="45">
         <v>126.6</v>
       </c>
-      <c r="R10" s="42">
+      <c r="R10" s="45">
         <v>125.9</v>
       </c>
-      <c r="S10" s="43">
+      <c r="S10" s="46">
         <v>-0.67</v>
       </c>
       <c r="T10" s="20"/>
-      <c r="U10" s="38">
+      <c r="U10" s="41">
         <v>6.70078574E8</v>
       </c>
-      <c r="V10" s="38">
+      <c r="V10" s="41">
         <v>6.39504989E8</v>
       </c>
-      <c r="W10" s="39">
+      <c r="W10" s="42">
         <f t="shared" si="6"/>
         <v>-0.04562686554</v>
       </c>
       <c r="X10" s="20"/>
-      <c r="Y10" s="44">
+      <c r="Y10" s="47">
         <f t="shared" ref="Y10:Z10" si="22">U10/D10</f>
         <v>132.035187</v>
       </c>
-      <c r="Z10" s="44">
+      <c r="Z10" s="47">
         <f t="shared" si="22"/>
         <v>125.3740586</v>
       </c>
-      <c r="AA10" s="39">
+      <c r="AA10" s="42">
         <f t="shared" si="8"/>
         <v>-0.05044964583</v>
       </c>
       <c r="AB10" s="20"/>
-      <c r="AC10" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD10" s="38">
+      <c r="AC10" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD10" s="41">
         <v>1.5829762E8</v>
       </c>
-      <c r="AE10" s="38">
+      <c r="AE10" s="41">
         <v>1.51074996E8</v>
       </c>
-      <c r="AF10" s="39">
+      <c r="AF10" s="42">
         <f t="shared" si="9"/>
         <v>-0.04562686413</v>
       </c>
       <c r="AG10" s="20"/>
-      <c r="AH10" s="44">
+      <c r="AH10" s="47">
         <f t="shared" ref="AH10:AI10" si="23">AD10/D10</f>
         <v>31.19164926</v>
       </c>
-      <c r="AI10" s="44">
+      <c r="AI10" s="47">
         <f t="shared" si="23"/>
         <v>29.61804165</v>
       </c>
-      <c r="AJ10" s="39">
+      <c r="AJ10" s="42">
         <f t="shared" si="11"/>
         <v>-0.05044964442</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>27</v>
+      <c r="A11" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>28</v>
       </c>
       <c r="C11" s="20"/>
-      <c r="D11" s="38">
+      <c r="D11" s="41">
         <v>1608000.0</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="41">
         <v>1709063.0</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="42">
         <f t="shared" si="3"/>
         <v>0.06285012438</v>
       </c>
       <c r="G11" s="20"/>
-      <c r="H11" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="38">
+      <c r="H11" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="41">
         <v>7.4903204E8</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="41">
         <v>6.87049103E8</v>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="42">
         <f t="shared" si="4"/>
         <v>-0.08275071518</v>
       </c>
       <c r="L11" s="20"/>
-      <c r="M11" s="41">
+      <c r="M11" s="44">
         <v>0.022</v>
       </c>
-      <c r="N11" s="41">
+      <c r="N11" s="44">
         <v>0.007</v>
       </c>
-      <c r="O11" s="39">
+      <c r="O11" s="42">
         <f t="shared" si="5"/>
         <v>-0.015</v>
       </c>
       <c r="P11" s="20"/>
-      <c r="Q11" s="42">
+      <c r="Q11" s="45">
         <v>119.1</v>
       </c>
-      <c r="R11" s="42">
+      <c r="R11" s="45">
         <v>110.5</v>
       </c>
-      <c r="S11" s="43">
+      <c r="S11" s="46">
         <v>-8.62</v>
       </c>
       <c r="T11" s="20"/>
-      <c r="U11" s="38">
+      <c r="U11" s="41">
         <v>6.28704443E8</v>
       </c>
-      <c r="V11" s="38">
+      <c r="V11" s="41">
         <v>6.21657444E8</v>
       </c>
-      <c r="W11" s="39">
+      <c r="W11" s="42">
         <f t="shared" si="6"/>
         <v>-0.01120876284</v>
       </c>
       <c r="X11" s="20"/>
-      <c r="Y11" s="44">
+      <c r="Y11" s="47">
         <f t="shared" ref="Y11:Z11" si="24">U11/D11</f>
         <v>390.9853501</v>
       </c>
-      <c r="Z11" s="44">
+      <c r="Z11" s="47">
         <f t="shared" si="24"/>
         <v>363.7416783</v>
       </c>
-      <c r="AA11" s="39">
+      <c r="AA11" s="42">
         <f t="shared" si="8"/>
         <v>-0.06967952068</v>
       </c>
       <c r="AB11" s="20"/>
-      <c r="AC11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD11" s="38">
+      <c r="AC11" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD11" s="41">
         <v>8.4465026E7</v>
       </c>
-      <c r="AE11" s="38">
+      <c r="AE11" s="41">
         <v>8.3518278E7</v>
       </c>
-      <c r="AF11" s="39">
+      <c r="AF11" s="42">
         <f t="shared" si="9"/>
         <v>-0.01120875757</v>
       </c>
       <c r="AG11" s="20"/>
-      <c r="AH11" s="44">
+      <c r="AH11" s="47">
         <f t="shared" ref="AH11:AI11" si="25">AD11/D11</f>
         <v>52.52800124</v>
       </c>
-      <c r="AI11" s="44">
+      <c r="AI11" s="47">
         <f t="shared" si="25"/>
         <v>48.86787556</v>
       </c>
-      <c r="AJ11" s="39">
+      <c r="AJ11" s="42">
         <f t="shared" si="11"/>
         <v>-0.06967951572</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>27</v>
+      <c r="A12" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>28</v>
       </c>
       <c r="C12" s="20"/>
-      <c r="D12" s="38">
+      <c r="D12" s="41">
         <v>3383000.0</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="41">
         <v>3812797.0</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="42">
         <f t="shared" si="3"/>
         <v>0.1270461129</v>
       </c>
       <c r="G12" s="20"/>
-      <c r="H12" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="38">
+      <c r="H12" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="41">
         <v>1.964628986E9</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="41">
         <v>2.169308416E9</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="42">
         <f t="shared" si="4"/>
         <v>0.1041822306</v>
       </c>
       <c r="L12" s="20"/>
-      <c r="M12" s="41">
+      <c r="M12" s="44">
         <v>0.02</v>
       </c>
-      <c r="N12" s="41">
+      <c r="N12" s="44">
         <v>0.02</v>
       </c>
-      <c r="O12" s="39">
+      <c r="O12" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P12" s="20"/>
-      <c r="Q12" s="42">
+      <c r="Q12" s="45">
         <v>113.1</v>
       </c>
-      <c r="R12" s="42">
+      <c r="R12" s="45">
         <v>110.2</v>
       </c>
-      <c r="S12" s="43">
+      <c r="S12" s="46">
         <v>-2.87</v>
       </c>
       <c r="T12" s="20"/>
-      <c r="U12" s="38">
+      <c r="U12" s="41">
         <v>1.73716957E9</v>
       </c>
-      <c r="V12" s="38">
+      <c r="V12" s="41">
         <v>1.968136661E9</v>
       </c>
-      <c r="W12" s="39">
+      <c r="W12" s="42">
         <f t="shared" si="6"/>
         <v>0.1329559848</v>
       </c>
       <c r="X12" s="20"/>
-      <c r="Y12" s="44">
+      <c r="Y12" s="47">
         <f t="shared" ref="Y12:Z12" si="26">U12/D12</f>
         <v>513.4997251</v>
       </c>
-      <c r="Z12" s="44">
+      <c r="Z12" s="47">
         <f t="shared" si="26"/>
         <v>516.1923546</v>
       </c>
-      <c r="AA12" s="39">
+      <c r="AA12" s="42">
         <f t="shared" si="8"/>
         <v>0.005243682443</v>
       </c>
       <c r="AB12" s="20"/>
-      <c r="AC12" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD12" s="38">
+      <c r="AC12" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD12" s="41">
         <v>1.63726374E8</v>
       </c>
-      <c r="AE12" s="38">
+      <c r="AE12" s="41">
         <v>1.85494775E8</v>
       </c>
-      <c r="AF12" s="39">
+      <c r="AF12" s="42">
         <f t="shared" si="9"/>
         <v>0.132955983</v>
       </c>
       <c r="AG12" s="20"/>
-      <c r="AH12" s="44">
+      <c r="AH12" s="47">
         <f t="shared" ref="AH12:AI12" si="27">AD12/D12</f>
         <v>48.39679988</v>
       </c>
-      <c r="AI12" s="44">
+      <c r="AI12" s="47">
         <f t="shared" si="27"/>
         <v>48.65057725</v>
       </c>
-      <c r="AJ12" s="39">
+      <c r="AJ12" s="42">
         <f t="shared" si="11"/>
         <v>0.005243680827</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>28</v>
+      <c r="A13" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>29</v>
       </c>
       <c r="C13" s="20"/>
-      <c r="D13" s="38">
+      <c r="D13" s="41">
         <v>2928000.0</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="41">
         <v>3198238.0</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="42">
         <f t="shared" si="3"/>
         <v>0.09229439891</v>
       </c>
       <c r="G13" s="20"/>
-      <c r="H13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="38">
+      <c r="H13" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="41">
         <v>2.09564E8</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="41">
         <v>2.10038747E8</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="42">
         <f t="shared" si="4"/>
         <v>0.002265403409</v>
       </c>
       <c r="L13" s="20"/>
-      <c r="M13" s="41">
+      <c r="M13" s="44">
         <v>0.017</v>
       </c>
-      <c r="N13" s="41">
+      <c r="N13" s="44">
         <v>0.021</v>
       </c>
-      <c r="O13" s="39">
+      <c r="O13" s="42">
         <f t="shared" si="5"/>
         <v>0.004</v>
       </c>
       <c r="P13" s="20"/>
-      <c r="Q13" s="42">
+      <c r="Q13" s="45">
         <v>120.1</v>
       </c>
-      <c r="R13" s="42">
+      <c r="R13" s="45">
         <v>119.2</v>
       </c>
-      <c r="S13" s="43">
+      <c r="S13" s="46">
         <v>-0.83</v>
       </c>
       <c r="T13" s="20"/>
-      <c r="U13" s="38">
+      <c r="U13" s="41">
         <v>1.74525859E8</v>
       </c>
-      <c r="V13" s="38">
+      <c r="V13" s="41">
         <v>1.76143974E8</v>
       </c>
-      <c r="W13" s="39">
+      <c r="W13" s="42">
         <f t="shared" si="6"/>
         <v>0.009271491395</v>
       </c>
       <c r="X13" s="20"/>
-      <c r="Y13" s="44">
+      <c r="Y13" s="47">
         <f t="shared" ref="Y13:Z13" si="28">U13/D13</f>
         <v>59.60582616</v>
       </c>
-      <c r="Z13" s="44">
+      <c r="Z13" s="47">
         <f t="shared" si="28"/>
         <v>55.07531772</v>
       </c>
-      <c r="AA13" s="39">
+      <c r="AA13" s="42">
         <f t="shared" si="8"/>
         <v>-0.07600781217</v>
       </c>
       <c r="AB13" s="20"/>
-      <c r="AC13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD13" s="38">
+      <c r="AC13" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD13" s="41">
         <v>1.74525859E8</v>
       </c>
-      <c r="AE13" s="38">
+      <c r="AE13" s="41">
         <v>1.76143974E8</v>
       </c>
-      <c r="AF13" s="39">
+      <c r="AF13" s="42">
         <f t="shared" si="9"/>
         <v>0.009271491395</v>
       </c>
       <c r="AG13" s="20"/>
-      <c r="AH13" s="44">
+      <c r="AH13" s="47">
         <f t="shared" ref="AH13:AI13" si="29">AD13/D13</f>
         <v>59.60582616</v>
       </c>
-      <c r="AI13" s="44">
+      <c r="AI13" s="47">
         <f t="shared" si="29"/>
         <v>55.07531772</v>
       </c>
-      <c r="AJ13" s="39">
+      <c r="AJ13" s="42">
         <f t="shared" si="11"/>
         <v>-0.07600781217</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>28</v>
+      <c r="A14" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>29</v>
       </c>
       <c r="C14" s="20"/>
-      <c r="D14" s="38">
+      <c r="D14" s="41">
         <v>1863185.0</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="41">
         <v>1993898.0</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="42">
         <f t="shared" si="3"/>
         <v>0.07015567429</v>
       </c>
       <c r="G14" s="20"/>
-      <c r="H14" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="38">
+      <c r="H14" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="41">
         <v>6.87394177E8</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="41">
         <v>6.71356104E8</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="42">
         <f t="shared" si="4"/>
         <v>-0.0233316975</v>
       </c>
       <c r="L14" s="20"/>
-      <c r="M14" s="41">
+      <c r="M14" s="44">
         <v>0.025</v>
       </c>
-      <c r="N14" s="41">
+      <c r="N14" s="44">
         <v>0.016</v>
       </c>
-      <c r="O14" s="39">
+      <c r="O14" s="42">
         <f t="shared" si="5"/>
         <v>-0.009</v>
       </c>
       <c r="P14" s="20"/>
-      <c r="Q14" s="42">
+      <c r="Q14" s="45">
         <v>114.8</v>
       </c>
-      <c r="R14" s="42">
+      <c r="R14" s="45">
         <v>111.8</v>
       </c>
-      <c r="S14" s="43">
+      <c r="S14" s="46">
         <v>-3.0</v>
       </c>
       <c r="T14" s="20"/>
-      <c r="U14" s="38">
+      <c r="U14" s="41">
         <v>5.9870705E8</v>
       </c>
-      <c r="V14" s="38">
+      <c r="V14" s="41">
         <v>6.00450986E8</v>
       </c>
-      <c r="W14" s="39">
+      <c r="W14" s="42">
         <f t="shared" si="6"/>
         <v>0.002912836921</v>
       </c>
       <c r="X14" s="20"/>
-      <c r="Y14" s="44">
+      <c r="Y14" s="47">
         <f t="shared" ref="Y14:Z14" si="30">U14/D14</f>
         <v>321.3352673</v>
       </c>
-      <c r="Z14" s="44">
+      <c r="Z14" s="47">
         <f t="shared" si="30"/>
         <v>301.1442842</v>
       </c>
-      <c r="AA14" s="39">
+      <c r="AA14" s="42">
         <f t="shared" si="8"/>
         <v>-0.06283463143</v>
       </c>
       <c r="AB14" s="20"/>
-      <c r="AC14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD14" s="38">
+      <c r="AC14" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD14" s="41">
         <v>8.1589505E7</v>
       </c>
-      <c r="AE14" s="38">
+      <c r="AE14" s="41">
         <v>8.1827162E7</v>
       </c>
-      <c r="AF14" s="39">
+      <c r="AF14" s="42">
         <f t="shared" si="9"/>
         <v>0.002912837871</v>
       </c>
       <c r="AG14" s="20"/>
-      <c r="AH14" s="44">
+      <c r="AH14" s="47">
         <f t="shared" ref="AH14:AI14" si="31">AD14/D14</f>
         <v>43.7903402</v>
       </c>
-      <c r="AI14" s="44">
+      <c r="AI14" s="47">
         <f t="shared" si="31"/>
         <v>41.03879035</v>
       </c>
-      <c r="AJ14" s="39">
+      <c r="AJ14" s="42">
         <f t="shared" si="11"/>
         <v>-0.06283463054</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>28</v>
+      <c r="A15" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>29</v>
       </c>
       <c r="C15" s="20"/>
-      <c r="D15" s="38">
+      <c r="D15" s="41">
         <v>2795000.0</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="41">
         <v>3041481.0</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="42">
         <f t="shared" si="3"/>
         <v>0.08818640429</v>
       </c>
       <c r="G15" s="20"/>
-      <c r="H15" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="38">
+      <c r="H15" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="41">
         <v>3.1498178E9</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="41">
         <v>3.306459387E9</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K15" s="42">
         <f t="shared" si="4"/>
         <v>0.0497303644</v>
       </c>
       <c r="L15" s="20"/>
-      <c r="M15" s="41">
+      <c r="M15" s="44">
         <v>0.02</v>
       </c>
-      <c r="N15" s="41">
+      <c r="N15" s="44">
         <v>0.02</v>
       </c>
-      <c r="O15" s="39">
+      <c r="O15" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P15" s="20"/>
-      <c r="Q15" s="42">
+      <c r="Q15" s="45">
         <v>118.3</v>
       </c>
-      <c r="R15" s="42">
+      <c r="R15" s="45">
         <v>115.1</v>
       </c>
-      <c r="S15" s="43">
+      <c r="S15" s="46">
         <v>-3.24</v>
       </c>
       <c r="T15" s="20"/>
-      <c r="U15" s="38">
+      <c r="U15" s="41">
         <v>2.662212166E9</v>
       </c>
-      <c r="V15" s="38">
+      <c r="V15" s="41">
         <v>2.873163553E9</v>
       </c>
-      <c r="W15" s="39">
+      <c r="W15" s="42">
         <f t="shared" si="6"/>
         <v>0.07923913417</v>
       </c>
       <c r="X15" s="20"/>
-      <c r="Y15" s="44">
+      <c r="Y15" s="47">
         <f t="shared" ref="Y15:Z15" si="32">U15/D15</f>
         <v>952.490936</v>
       </c>
-      <c r="Z15" s="44">
+      <c r="Z15" s="47">
         <f t="shared" si="32"/>
         <v>944.6593791</v>
       </c>
-      <c r="AA15" s="39">
+      <c r="AA15" s="42">
         <f t="shared" si="8"/>
         <v>-0.008222185181</v>
       </c>
       <c r="AB15" s="20"/>
-      <c r="AC15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD15" s="38">
+      <c r="AC15" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD15" s="41">
         <v>1.00785251E8</v>
       </c>
-      <c r="AE15" s="38">
+      <c r="AE15" s="41">
         <v>1.08771387E8</v>
       </c>
-      <c r="AF15" s="39">
+      <c r="AF15" s="42">
         <f t="shared" si="9"/>
         <v>0.07923913391</v>
       </c>
       <c r="AG15" s="20"/>
-      <c r="AH15" s="44">
+      <c r="AH15" s="47">
         <f t="shared" ref="AH15:AI15" si="33">AD15/D15</f>
         <v>36.05912379</v>
       </c>
-      <c r="AI15" s="44">
+      <c r="AI15" s="47">
         <f t="shared" si="33"/>
         <v>35.76263899</v>
       </c>
-      <c r="AJ15" s="39">
+      <c r="AJ15" s="42">
         <f t="shared" si="11"/>
         <v>-0.008222185417</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>28</v>
+      <c r="A16" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="20"/>
-      <c r="D16" s="38">
+      <c r="D16" s="41">
         <v>2453639.0</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="41">
         <v>3236517.0</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="42">
         <f t="shared" si="3"/>
         <v>0.319068127</v>
       </c>
       <c r="G16" s="20"/>
-      <c r="H16" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="38">
+      <c r="H16" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="41">
         <v>3.0406204408E10</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="41">
         <v>3.0336749603E10</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K16" s="42">
         <f t="shared" si="4"/>
         <v>-0.002284231339</v>
       </c>
       <c r="L16" s="20"/>
-      <c r="M16" s="41">
+      <c r="M16" s="44">
         <v>0.03</v>
       </c>
-      <c r="N16" s="41">
+      <c r="N16" s="44">
         <v>0.029</v>
       </c>
-      <c r="O16" s="39">
+      <c r="O16" s="42">
         <f t="shared" si="5"/>
         <v>-0.001</v>
       </c>
       <c r="P16" s="20"/>
-      <c r="Q16" s="42">
+      <c r="Q16" s="45">
         <v>130.3</v>
       </c>
-      <c r="R16" s="42">
+      <c r="R16" s="45">
         <v>124.1</v>
       </c>
-      <c r="S16" s="43">
+      <c r="S16" s="46">
         <v>-6.23</v>
       </c>
       <c r="T16" s="20"/>
-      <c r="U16" s="38">
+      <c r="U16" s="41">
         <v>2.3330056076E10</v>
       </c>
-      <c r="V16" s="38">
+      <c r="V16" s="41">
         <v>2.4446241573E10</v>
       </c>
-      <c r="W16" s="39">
+      <c r="W16" s="42">
         <f t="shared" si="6"/>
         <v>0.04784324107</v>
       </c>
       <c r="X16" s="20"/>
-      <c r="Y16" s="44">
+      <c r="Y16" s="47">
         <f t="shared" ref="Y16:Z16" si="34">U16/D16</f>
         <v>9508.349059</v>
       </c>
-      <c r="Z16" s="44">
+      <c r="Z16" s="47">
         <f t="shared" si="34"/>
         <v>7553.256038</v>
       </c>
-      <c r="AA16" s="39">
+      <c r="AA16" s="42">
         <f t="shared" si="8"/>
         <v>-0.2056185578</v>
       </c>
       <c r="AB16" s="20"/>
-      <c r="AC16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD16" s="38">
+      <c r="AC16" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD16" s="41">
         <v>8.3411296E7</v>
       </c>
-      <c r="AE16" s="38">
+      <c r="AE16" s="41">
         <v>8.7401963E7</v>
       </c>
-      <c r="AF16" s="39">
+      <c r="AF16" s="42">
         <f t="shared" si="9"/>
         <v>0.04784324416</v>
       </c>
       <c r="AG16" s="20"/>
-      <c r="AH16" s="44">
+      <c r="AH16" s="47">
         <f t="shared" ref="AH16:AI16" si="35">AD16/D16</f>
         <v>33.99493406</v>
       </c>
-      <c r="AI16" s="44">
+      <c r="AI16" s="47">
         <f t="shared" si="35"/>
         <v>27.00494482</v>
       </c>
-      <c r="AJ16" s="39">
+      <c r="AJ16" s="42">
         <f t="shared" si="11"/>
         <v>-0.2056185555</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>28</v>
+      <c r="A17" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>29</v>
       </c>
       <c r="C17" s="20"/>
-      <c r="D17" s="38">
+      <c r="D17" s="41">
         <v>1250000.0</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="41">
         <v>1296243.0</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="42">
         <f t="shared" si="3"/>
         <v>0.0369944</v>
       </c>
       <c r="G17" s="20"/>
-      <c r="H17" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="38">
+      <c r="H17" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="41">
         <v>6.6300093E7</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="41">
         <v>6.4214826E7</v>
       </c>
-      <c r="K17" s="39">
+      <c r="K17" s="42">
         <f t="shared" si="4"/>
         <v>-0.03145194683</v>
       </c>
       <c r="L17" s="20"/>
-      <c r="M17" s="41">
+      <c r="M17" s="44">
         <v>0.018</v>
       </c>
-      <c r="N17" s="41">
+      <c r="N17" s="44">
         <v>0.025</v>
       </c>
-      <c r="O17" s="39">
+      <c r="O17" s="42">
         <f t="shared" si="5"/>
         <v>0.007</v>
       </c>
       <c r="P17" s="20"/>
-      <c r="Q17" s="42">
+      <c r="Q17" s="45">
         <v>115.7</v>
       </c>
-      <c r="R17" s="42">
+      <c r="R17" s="45">
         <v>113.7</v>
       </c>
-      <c r="S17" s="43">
+      <c r="S17" s="46">
         <v>-2.1</v>
       </c>
       <c r="T17" s="20"/>
-      <c r="U17" s="38">
+      <c r="U17" s="41">
         <v>5.7279434E7</v>
       </c>
-      <c r="V17" s="38">
+      <c r="V17" s="41">
         <v>5.6502122E7</v>
       </c>
-      <c r="W17" s="39">
+      <c r="W17" s="42">
         <f t="shared" si="6"/>
         <v>-0.01357052516</v>
       </c>
       <c r="X17" s="20"/>
-      <c r="Y17" s="44">
+      <c r="Y17" s="47">
         <f t="shared" ref="Y17:Z17" si="36">U17/D17</f>
         <v>45.8235472</v>
       </c>
-      <c r="Z17" s="44">
+      <c r="Z17" s="47">
         <f t="shared" si="36"/>
         <v>43.58914339</v>
       </c>
-      <c r="AA17" s="39">
+      <c r="AA17" s="42">
         <f t="shared" si="8"/>
         <v>-0.04876103975</v>
       </c>
       <c r="AB17" s="20"/>
-      <c r="AC17" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD17" s="38">
+      <c r="AC17" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD17" s="41">
         <v>5.7279434E7</v>
       </c>
-      <c r="AE17" s="38">
+      <c r="AE17" s="41">
         <v>5.6502122E7</v>
       </c>
-      <c r="AF17" s="39">
+      <c r="AF17" s="42">
         <f t="shared" si="9"/>
         <v>-0.01357052516</v>
       </c>
       <c r="AG17" s="20"/>
-      <c r="AH17" s="44">
+      <c r="AH17" s="47">
         <f t="shared" ref="AH17:AI17" si="37">AD17/D17</f>
         <v>45.8235472</v>
       </c>
-      <c r="AI17" s="44">
+      <c r="AI17" s="47">
         <f t="shared" si="37"/>
         <v>43.58914339</v>
       </c>
-      <c r="AJ17" s="39">
+      <c r="AJ17" s="42">
         <f t="shared" si="11"/>
         <v>-0.04876103975</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>28</v>
+      <c r="A18" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>29</v>
       </c>
       <c r="C18" s="20"/>
-      <c r="D18" s="38">
+      <c r="D18" s="41">
         <v>529770.0</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="41">
         <v>571894.0</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="42">
         <f t="shared" si="3"/>
         <v>0.07951375125</v>
       </c>
       <c r="G18" s="20"/>
-      <c r="H18" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="38">
+      <c r="H18" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="41">
         <v>3.4392801E7</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="41">
         <v>3.2950279E7</v>
       </c>
-      <c r="K18" s="39">
+      <c r="K18" s="42">
         <f t="shared" si="4"/>
         <v>-0.04194255653</v>
       </c>
       <c r="L18" s="20"/>
-      <c r="M18" s="41">
+      <c r="M18" s="44">
         <v>0.02</v>
       </c>
-      <c r="N18" s="41">
+      <c r="N18" s="44">
         <v>0.019</v>
       </c>
-      <c r="O18" s="39">
+      <c r="O18" s="42">
         <f t="shared" si="5"/>
         <v>-0.001</v>
       </c>
       <c r="P18" s="20"/>
-      <c r="Q18" s="42">
+      <c r="Q18" s="45">
         <v>118.8</v>
       </c>
-      <c r="R18" s="42">
+      <c r="R18" s="45">
         <v>112.0</v>
       </c>
-      <c r="S18" s="43">
+      <c r="S18" s="46">
         <v>-6.76</v>
       </c>
       <c r="T18" s="20"/>
-      <c r="U18" s="38">
+      <c r="U18" s="41">
         <v>2.89495E7</v>
       </c>
-      <c r="V18" s="38">
+      <c r="V18" s="41">
         <v>2.9408607E7</v>
       </c>
-      <c r="W18" s="39">
+      <c r="W18" s="42">
         <f t="shared" si="6"/>
         <v>0.01585889221</v>
       </c>
       <c r="X18" s="20"/>
-      <c r="Y18" s="44">
+      <c r="Y18" s="47">
         <f t="shared" ref="Y18:Z18" si="38">U18/D18</f>
         <v>54.64541216</v>
       </c>
-      <c r="Z18" s="44">
+      <c r="Z18" s="47">
         <f t="shared" si="38"/>
         <v>51.42317807</v>
       </c>
-      <c r="AA18" s="39">
+      <c r="AA18" s="42">
         <f t="shared" si="8"/>
         <v>-0.05896623268</v>
       </c>
       <c r="AB18" s="20"/>
-      <c r="AC18" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD18" s="38">
+      <c r="AC18" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD18" s="41">
         <v>2.89495E7</v>
       </c>
-      <c r="AE18" s="38">
+      <c r="AE18" s="41">
         <v>2.9408607E7</v>
       </c>
-      <c r="AF18" s="39">
+      <c r="AF18" s="42">
         <f t="shared" si="9"/>
         <v>0.01585889221</v>
       </c>
       <c r="AG18" s="20"/>
-      <c r="AH18" s="44">
+      <c r="AH18" s="47">
         <f t="shared" ref="AH18:AI18" si="39">AD18/D18</f>
         <v>54.64541216</v>
       </c>
-      <c r="AI18" s="44">
+      <c r="AI18" s="47">
         <f t="shared" si="39"/>
         <v>51.42317807</v>
       </c>
-      <c r="AJ18" s="39">
+      <c r="AJ18" s="42">
         <f t="shared" si="11"/>
         <v>-0.05896623268</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>45</v>
+      <c r="A19" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>30</v>
       </c>
       <c r="C19" s="20"/>
-      <c r="D19" s="38">
+      <c r="D19" s="41">
         <v>2650000.0</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="41">
         <v>2643568.0</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="42">
         <f t="shared" si="3"/>
         <v>-0.002427169811</v>
       </c>
       <c r="G19" s="20"/>
-      <c r="H19" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="38">
+      <c r="H19" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="41">
         <v>1.8055602E8</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="41">
         <v>1.83524635E8</v>
       </c>
-      <c r="K19" s="39">
+      <c r="K19" s="42">
         <f t="shared" si="4"/>
         <v>0.01644151771</v>
       </c>
       <c r="L19" s="20"/>
-      <c r="M19" s="41">
+      <c r="M19" s="44">
         <v>0.014</v>
       </c>
-      <c r="N19" s="41">
+      <c r="N19" s="44">
         <v>0.023</v>
       </c>
-      <c r="O19" s="39">
+      <c r="O19" s="42">
         <f t="shared" si="5"/>
         <v>0.009</v>
       </c>
       <c r="P19" s="20"/>
-      <c r="Q19" s="42">
+      <c r="Q19" s="45">
         <v>116.0</v>
       </c>
-      <c r="R19" s="42">
+      <c r="R19" s="45">
         <v>118.2</v>
       </c>
-      <c r="S19" s="43">
+      <c r="S19" s="46">
         <v>2.2</v>
       </c>
       <c r="T19" s="20"/>
-      <c r="U19" s="38">
+      <c r="U19" s="41">
         <v>1.55652698E8</v>
       </c>
-      <c r="V19" s="38">
+      <c r="V19" s="41">
         <v>1.5527251E8</v>
       </c>
-      <c r="W19" s="39">
+      <c r="W19" s="42">
         <f t="shared" si="6"/>
         <v>-0.002442540379</v>
       </c>
       <c r="X19" s="20"/>
-      <c r="Y19" s="44">
+      <c r="Y19" s="47">
         <f t="shared" ref="Y19:Z19" si="40">U19/D19</f>
         <v>58.73686717</v>
       </c>
-      <c r="Z19" s="44">
+      <c r="Z19" s="47">
         <f t="shared" si="40"/>
         <v>58.73596215</v>
       </c>
-      <c r="AA19" s="39">
+      <c r="AA19" s="42">
         <f t="shared" si="8"/>
         <v>-0.00001540796565</v>
       </c>
       <c r="AB19" s="20"/>
-      <c r="AC19" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD19" s="38">
+      <c r="AC19" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD19" s="41">
         <v>1.55652698E8</v>
       </c>
-      <c r="AE19" s="38">
+      <c r="AE19" s="41">
         <v>1.5527251E8</v>
       </c>
-      <c r="AF19" s="39">
+      <c r="AF19" s="42">
         <f t="shared" si="9"/>
         <v>-0.002442540379</v>
       </c>
       <c r="AG19" s="20"/>
-      <c r="AH19" s="44">
+      <c r="AH19" s="47">
         <f t="shared" ref="AH19:AI19" si="41">AD19/D19</f>
         <v>58.73686717</v>
       </c>
-      <c r="AI19" s="44">
+      <c r="AI19" s="47">
         <f t="shared" si="41"/>
         <v>58.73596215</v>
       </c>
-      <c r="AJ19" s="39">
+      <c r="AJ19" s="42">
         <f t="shared" si="11"/>
         <v>-0.00001540796565</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>45</v>
+      <c r="A20" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>30</v>
       </c>
       <c r="C20" s="20"/>
-      <c r="D20" s="38">
+      <c r="D20" s="41">
         <v>2.0204E7</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="41">
         <v>2.1449867E7</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="42">
         <f t="shared" si="3"/>
         <v>0.06166437339</v>
       </c>
       <c r="G20" s="20"/>
-      <c r="H20" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="38">
+      <c r="H20" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="41">
         <v>1.334112339E9</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="41">
         <v>1.328736656E9</v>
       </c>
-      <c r="K20" s="39">
+      <c r="K20" s="42">
         <f t="shared" si="4"/>
         <v>-0.004029408051</v>
       </c>
       <c r="L20" s="20"/>
-      <c r="M20" s="41">
+      <c r="M20" s="44">
         <v>0.011</v>
       </c>
-      <c r="N20" s="41">
+      <c r="N20" s="44">
         <v>0.021</v>
       </c>
-      <c r="O20" s="39">
+      <c r="O20" s="42">
         <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="P20" s="20"/>
-      <c r="Q20" s="42">
+      <c r="Q20" s="45">
         <v>111.5</v>
       </c>
-      <c r="R20" s="42">
+      <c r="R20" s="45">
         <v>112.1</v>
       </c>
-      <c r="S20" s="43">
+      <c r="S20" s="46">
         <v>0.57</v>
       </c>
       <c r="T20" s="20"/>
-      <c r="U20" s="38">
+      <c r="U20" s="41">
         <v>1.196187863E9</v>
       </c>
-      <c r="V20" s="38">
+      <c r="V20" s="41">
         <v>1.185348242E9</v>
       </c>
-      <c r="W20" s="39">
+      <c r="W20" s="42">
         <f t="shared" si="6"/>
         <v>-0.009061804868</v>
       </c>
       <c r="X20" s="20"/>
-      <c r="Y20" s="44">
+      <c r="Y20" s="47">
         <f t="shared" ref="Y20:Z20" si="42">U20/D20</f>
         <v>59.20549708</v>
       </c>
-      <c r="Z20" s="44">
+      <c r="Z20" s="47">
         <f t="shared" si="42"/>
         <v>55.26133295</v>
       </c>
-      <c r="AA20" s="39">
+      <c r="AA20" s="42">
         <f t="shared" si="8"/>
         <v>-0.06661820819</v>
       </c>
       <c r="AB20" s="20"/>
-      <c r="AC20" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD20" s="38">
+      <c r="AC20" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD20" s="41">
         <v>1.196187863E9</v>
       </c>
-      <c r="AE20" s="38">
+      <c r="AE20" s="41">
         <v>1.185348242E9</v>
       </c>
-      <c r="AF20" s="39">
+      <c r="AF20" s="42">
         <f t="shared" si="9"/>
         <v>-0.009061804868</v>
       </c>
       <c r="AG20" s="20"/>
-      <c r="AH20" s="44">
+      <c r="AH20" s="47">
         <f t="shared" ref="AH20:AI20" si="43">AD20/D20</f>
         <v>59.20549708</v>
       </c>
-      <c r="AI20" s="44">
+      <c r="AI20" s="47">
         <f t="shared" si="43"/>
         <v>55.26133295</v>
       </c>
-      <c r="AJ20" s="39">
+      <c r="AJ20" s="42">
         <f t="shared" si="11"/>
         <v>-0.06661820819</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>45</v>
+      <c r="A21" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>30</v>
       </c>
       <c r="C21" s="20"/>
-      <c r="D21" s="38">
+      <c r="D21" s="41">
         <v>1.3242E7</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="41">
         <v>1.4931581E7</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="42">
         <f t="shared" si="3"/>
         <v>0.1275925842</v>
       </c>
       <c r="G21" s="20"/>
-      <c r="H21" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="38">
+      <c r="H21" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="41">
         <v>9.27369907E8</v>
       </c>
-      <c r="J21" s="38">
+      <c r="J21" s="41">
         <v>9.05909401E8</v>
       </c>
-      <c r="K21" s="39">
+      <c r="K21" s="42">
         <f t="shared" si="4"/>
         <v>-0.0231412577</v>
       </c>
       <c r="L21" s="20"/>
-      <c r="M21" s="41">
+      <c r="M21" s="44">
         <v>0.017</v>
       </c>
-      <c r="N21" s="41">
+      <c r="N21" s="44">
         <v>0.019</v>
       </c>
-      <c r="O21" s="39">
+      <c r="O21" s="42">
         <f t="shared" si="5"/>
         <v>0.002</v>
       </c>
       <c r="P21" s="20"/>
-      <c r="Q21" s="42">
+      <c r="Q21" s="45">
         <v>115.5</v>
       </c>
-      <c r="R21" s="42">
+      <c r="R21" s="45">
         <v>113.0</v>
       </c>
-      <c r="S21" s="43">
+      <c r="S21" s="46">
         <v>-2.56</v>
       </c>
       <c r="T21" s="20"/>
-      <c r="U21" s="38">
+      <c r="U21" s="41">
         <v>8.02748084E8</v>
       </c>
-      <c r="V21" s="38">
+      <c r="V21" s="41">
         <v>8.01931881E8</v>
       </c>
-      <c r="W21" s="39">
+      <c r="W21" s="42">
         <f t="shared" si="6"/>
         <v>-0.001016761069</v>
       </c>
       <c r="X21" s="20"/>
-      <c r="Y21" s="44">
+      <c r="Y21" s="47">
         <f t="shared" ref="Y21:Z21" si="44">U21/D21</f>
         <v>60.62136263</v>
       </c>
-      <c r="Z21" s="44">
+      <c r="Z21" s="47">
         <f t="shared" si="44"/>
         <v>53.70709779</v>
       </c>
-      <c r="AA21" s="39">
+      <c r="AA21" s="42">
         <f t="shared" si="8"/>
         <v>-0.1140565724</v>
       </c>
       <c r="AB21" s="20"/>
-      <c r="AC21" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD21" s="38">
+      <c r="AC21" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD21" s="41">
         <v>8.02748084E8</v>
       </c>
-      <c r="AE21" s="38">
+      <c r="AE21" s="41">
         <v>8.01931881E8</v>
       </c>
-      <c r="AF21" s="39">
+      <c r="AF21" s="42">
         <f t="shared" si="9"/>
         <v>-0.001016761069</v>
       </c>
       <c r="AG21" s="20"/>
-      <c r="AH21" s="44">
+      <c r="AH21" s="47">
         <f t="shared" ref="AH21:AI21" si="45">AD21/D21</f>
         <v>60.62136263</v>
       </c>
-      <c r="AI21" s="44">
+      <c r="AI21" s="47">
         <f t="shared" si="45"/>
         <v>53.70709779</v>
       </c>
-      <c r="AJ21" s="39">
+      <c r="AJ21" s="42">
         <f t="shared" si="11"/>
         <v>-0.1140565724</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>45</v>
+      <c r="A22" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>30</v>
       </c>
       <c r="C22" s="20"/>
-      <c r="D22" s="38">
+      <c r="D22" s="41">
         <v>3045000.0</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="41">
         <v>3392469.0</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="42">
         <f t="shared" si="3"/>
         <v>0.11411133</v>
       </c>
       <c r="G22" s="20"/>
-      <c r="H22" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="38">
+      <c r="H22" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="41">
         <v>1.93763267E8</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J22" s="41">
         <v>2.02928049E8</v>
       </c>
-      <c r="K22" s="39">
+      <c r="K22" s="42">
         <f t="shared" si="4"/>
         <v>0.04729886186</v>
       </c>
       <c r="L22" s="20"/>
-      <c r="M22" s="41">
+      <c r="M22" s="44">
         <v>0.015</v>
       </c>
-      <c r="N22" s="41">
+      <c r="N22" s="44">
         <v>0.016</v>
       </c>
-      <c r="O22" s="39">
+      <c r="O22" s="42">
         <f t="shared" si="5"/>
         <v>0.001</v>
       </c>
       <c r="P22" s="20"/>
-      <c r="Q22" s="42">
+      <c r="Q22" s="45">
         <v>115.3</v>
       </c>
-      <c r="R22" s="42">
+      <c r="R22" s="45">
         <v>113.1</v>
       </c>
-      <c r="S22" s="43">
+      <c r="S22" s="46">
         <v>-2.23</v>
       </c>
       <c r="T22" s="20"/>
-      <c r="U22" s="38">
+      <c r="U22" s="41">
         <v>1.68065588E8</v>
       </c>
-      <c r="V22" s="38">
+      <c r="V22" s="41">
         <v>1.79494225E8</v>
       </c>
-      <c r="W22" s="39">
+      <c r="W22" s="42">
         <f t="shared" si="6"/>
         <v>0.06800105326</v>
       </c>
       <c r="X22" s="20"/>
-      <c r="Y22" s="44">
+      <c r="Y22" s="47">
         <f t="shared" ref="Y22:Z22" si="46">U22/D22</f>
         <v>55.19395337</v>
       </c>
-      <c r="Z22" s="44">
+      <c r="Z22" s="47">
         <f t="shared" si="46"/>
         <v>52.90961391</v>
       </c>
-      <c r="AA22" s="39">
+      <c r="AA22" s="42">
         <f t="shared" si="8"/>
         <v>-0.04138749472</v>
       </c>
       <c r="AB22" s="20"/>
-      <c r="AC22" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD22" s="38">
+      <c r="AC22" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD22" s="41">
         <v>1.68065588E8</v>
       </c>
-      <c r="AE22" s="38">
+      <c r="AE22" s="41">
         <v>1.79494225E8</v>
       </c>
-      <c r="AF22" s="39">
+      <c r="AF22" s="42">
         <f t="shared" si="9"/>
         <v>0.06800105326</v>
       </c>
       <c r="AG22" s="20"/>
-      <c r="AH22" s="44">
+      <c r="AH22" s="47">
         <f t="shared" ref="AH22:AI22" si="47">AD22/D22</f>
         <v>55.19395337</v>
       </c>
-      <c r="AI22" s="44">
+      <c r="AI22" s="47">
         <f t="shared" si="47"/>
         <v>52.90961391</v>
       </c>
-      <c r="AJ22" s="39">
+      <c r="AJ22" s="42">
         <f t="shared" si="11"/>
         <v>-0.04138749472</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>45</v>
+      <c r="A23" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>30</v>
       </c>
       <c r="C23" s="20"/>
-      <c r="D23" s="38">
+      <c r="D23" s="41">
         <v>1512889.0</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="41">
         <v>1741384.0</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="42">
         <f t="shared" si="3"/>
         <v>0.1510322304</v>
       </c>
       <c r="G23" s="20"/>
-      <c r="H23" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" s="38">
+      <c r="H23" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="41">
         <v>1.57939446E8</v>
       </c>
-      <c r="J23" s="38">
+      <c r="J23" s="41">
         <v>1.67074878E8</v>
       </c>
-      <c r="K23" s="39">
+      <c r="K23" s="42">
         <f t="shared" si="4"/>
         <v>0.05784135776</v>
       </c>
       <c r="L23" s="20"/>
-      <c r="M23" s="41">
+      <c r="M23" s="44">
         <v>0.01</v>
       </c>
-      <c r="N23" s="41">
+      <c r="N23" s="44">
         <v>0.009</v>
       </c>
-      <c r="O23" s="39">
+      <c r="O23" s="42">
         <f t="shared" si="5"/>
         <v>-0.001</v>
       </c>
       <c r="P23" s="20"/>
-      <c r="Q23" s="42">
+      <c r="Q23" s="45">
         <v>100.6</v>
       </c>
-      <c r="R23" s="42">
+      <c r="R23" s="45">
         <v>100.3</v>
       </c>
-      <c r="S23" s="43">
+      <c r="S23" s="46">
         <v>-0.3</v>
       </c>
       <c r="T23" s="20"/>
-      <c r="U23" s="38">
+      <c r="U23" s="41">
         <v>1.5701914E8</v>
       </c>
-      <c r="V23" s="38">
+      <c r="V23" s="41">
         <v>1.665988E8</v>
       </c>
-      <c r="W23" s="39">
+      <c r="W23" s="42">
         <f t="shared" si="6"/>
         <v>0.06100950496</v>
       </c>
       <c r="X23" s="20"/>
-      <c r="Y23" s="44">
+      <c r="Y23" s="47">
         <f t="shared" ref="Y23:Z23" si="48">U23/D23</f>
         <v>103.7876143</v>
       </c>
-      <c r="Z23" s="44">
+      <c r="Z23" s="47">
         <f t="shared" si="48"/>
         <v>95.67034037</v>
       </c>
-      <c r="AA23" s="39">
+      <c r="AA23" s="42">
         <f t="shared" si="8"/>
         <v>-0.07821042978</v>
       </c>
       <c r="AB23" s="20"/>
-      <c r="AC23" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD23" s="38">
+      <c r="AC23" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD23" s="41">
         <v>1.04056476E8</v>
       </c>
-      <c r="AE23" s="38">
+      <c r="AE23" s="41">
         <v>1.10404909E8</v>
       </c>
-      <c r="AF23" s="39">
+      <c r="AF23" s="42">
         <f t="shared" si="9"/>
         <v>0.0610094945</v>
       </c>
       <c r="AG23" s="20"/>
-      <c r="AH23" s="44">
+      <c r="AH23" s="47">
         <f t="shared" ref="AH23:AI23" si="49">AD23/D23</f>
         <v>68.77998055</v>
       </c>
-      <c r="AI23" s="44">
+      <c r="AI23" s="47">
         <f t="shared" si="49"/>
         <v>63.40066809</v>
       </c>
-      <c r="AJ23" s="39">
+      <c r="AJ23" s="42">
         <f t="shared" si="11"/>
         <v>-0.07821043887</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>46</v>
+      <c r="A24" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>31</v>
       </c>
       <c r="C24" s="20"/>
-      <c r="D24" s="38">
+      <c r="D24" s="41">
         <v>855350.0</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="41">
         <v>919795.0</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="42">
         <f t="shared" si="3"/>
         <v>0.07534342667</v>
       </c>
       <c r="G24" s="20"/>
-      <c r="H24" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="38">
+      <c r="H24" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="41">
         <v>2.7073003E7</v>
       </c>
-      <c r="J24" s="38">
+      <c r="J24" s="41">
         <v>2.7253085E7</v>
       </c>
-      <c r="K24" s="39">
+      <c r="K24" s="42">
         <f t="shared" si="4"/>
         <v>0.006651718688</v>
       </c>
       <c r="L24" s="20"/>
-      <c r="M24" s="41">
+      <c r="M24" s="44">
         <v>0.03</v>
       </c>
-      <c r="N24" s="41">
+      <c r="N24" s="44">
         <v>0.034</v>
       </c>
-      <c r="O24" s="39">
+      <c r="O24" s="42">
         <f t="shared" si="5"/>
         <v>0.004</v>
       </c>
       <c r="P24" s="20"/>
-      <c r="Q24" s="42">
+      <c r="Q24" s="45">
         <v>134.8</v>
       </c>
-      <c r="R24" s="42">
+      <c r="R24" s="45">
         <v>126.6</v>
       </c>
-      <c r="S24" s="43">
+      <c r="S24" s="46">
         <v>-8.24</v>
       </c>
       <c r="T24" s="20"/>
-      <c r="U24" s="38">
+      <c r="U24" s="41">
         <v>2.0081013E7</v>
       </c>
-      <c r="V24" s="38">
+      <c r="V24" s="41">
         <v>2.1531206E7</v>
       </c>
-      <c r="W24" s="39">
+      <c r="W24" s="42">
         <f t="shared" si="6"/>
         <v>0.07221712371</v>
       </c>
       <c r="X24" s="20"/>
-      <c r="Y24" s="44">
+      <c r="Y24" s="47">
         <f t="shared" ref="Y24:Z24" si="50">U24/D24</f>
         <v>23.47695446</v>
       </c>
-      <c r="Z24" s="44">
+      <c r="Z24" s="47">
         <f t="shared" si="50"/>
         <v>23.40870085</v>
       </c>
-      <c r="AA24" s="39">
+      <c r="AA24" s="42">
         <f t="shared" si="8"/>
         <v>-0.002907260027</v>
       </c>
       <c r="AB24" s="20"/>
-      <c r="AC24" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD24" s="38">
+      <c r="AC24" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD24" s="41">
         <v>2.0081013E7</v>
       </c>
-      <c r="AE24" s="38">
+      <c r="AE24" s="41">
         <v>2.1531206E7</v>
       </c>
-      <c r="AF24" s="39">
+      <c r="AF24" s="42">
         <f t="shared" si="9"/>
         <v>0.07221712371</v>
       </c>
       <c r="AG24" s="20"/>
-      <c r="AH24" s="44">
+      <c r="AH24" s="47">
         <f t="shared" ref="AH24:AI24" si="51">AD24/D24</f>
         <v>23.47695446</v>
       </c>
-      <c r="AI24" s="44">
+      <c r="AI24" s="47">
         <f t="shared" si="51"/>
         <v>23.40870085</v>
       </c>
-      <c r="AJ24" s="39">
+      <c r="AJ24" s="42">
         <f t="shared" si="11"/>
         <v>-0.002907260027</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>46</v>
+      <c r="A25" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>31</v>
       </c>
       <c r="C25" s="20"/>
-      <c r="D25" s="38">
+      <c r="D25" s="41">
         <v>843000.0</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="41">
         <v>940208.0</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="42">
         <f t="shared" si="3"/>
         <v>0.115311981</v>
       </c>
       <c r="G25" s="20"/>
-      <c r="H25" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="38">
+      <c r="H25" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="41">
         <v>4.6321E7</v>
       </c>
-      <c r="J25" s="38">
+      <c r="J25" s="41">
         <v>4.2365049E7</v>
       </c>
-      <c r="K25" s="39">
+      <c r="K25" s="42">
         <f t="shared" si="4"/>
         <v>-0.08540297057</v>
       </c>
       <c r="L25" s="20"/>
-      <c r="M25" s="41">
+      <c r="M25" s="44">
         <v>0.02</v>
       </c>
-      <c r="N25" s="41">
+      <c r="N25" s="44">
         <v>0.012</v>
       </c>
-      <c r="O25" s="39">
+      <c r="O25" s="42">
         <f t="shared" si="5"/>
         <v>-0.008</v>
       </c>
       <c r="P25" s="20"/>
-      <c r="Q25" s="42">
+      <c r="Q25" s="45">
         <v>121.0</v>
       </c>
-      <c r="R25" s="42">
+      <c r="R25" s="45">
         <v>114.6</v>
       </c>
-      <c r="S25" s="43">
+      <c r="S25" s="46">
         <v>-6.35</v>
       </c>
       <c r="T25" s="20"/>
-      <c r="U25" s="38">
+      <c r="U25" s="41">
         <v>3.8294684E7</v>
       </c>
-      <c r="V25" s="38">
+      <c r="V25" s="41">
         <v>3.696324E7</v>
       </c>
-      <c r="W25" s="39">
+      <c r="W25" s="42">
         <f t="shared" si="6"/>
         <v>-0.03476837673</v>
       </c>
       <c r="X25" s="20"/>
-      <c r="Y25" s="44">
+      <c r="Y25" s="47">
         <f t="shared" ref="Y25:Z25" si="52">U25/D25</f>
         <v>45.42667141</v>
       </c>
-      <c r="Z25" s="44">
+      <c r="Z25" s="47">
         <f t="shared" si="52"/>
         <v>39.3138965</v>
       </c>
-      <c r="AA25" s="39">
+      <c r="AA25" s="42">
         <f t="shared" si="8"/>
         <v>-0.1345635663</v>
       </c>
       <c r="AB25" s="20"/>
-      <c r="AC25" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD25" s="38">
+      <c r="AC25" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD25" s="41">
         <v>3.8294684E7</v>
       </c>
-      <c r="AE25" s="38">
+      <c r="AE25" s="41">
         <v>3.696324E7</v>
       </c>
-      <c r="AF25" s="39">
+      <c r="AF25" s="42">
         <f t="shared" si="9"/>
         <v>-0.03476837673</v>
       </c>
       <c r="AG25" s="20"/>
-      <c r="AH25" s="44">
+      <c r="AH25" s="47">
         <f t="shared" ref="AH25:AI25" si="53">AD25/D25</f>
         <v>45.42667141</v>
       </c>
-      <c r="AI25" s="44">
+      <c r="AI25" s="47">
         <f t="shared" si="53"/>
         <v>39.3138965</v>
       </c>
-      <c r="AJ25" s="39">
+      <c r="AJ25" s="42">
         <f t="shared" si="11"/>
         <v>-0.1345635663</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>46</v>
+      <c r="A26" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>31</v>
       </c>
       <c r="C26" s="20"/>
-      <c r="D26" s="38">
+      <c r="D26" s="41">
         <v>867000.0</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="41">
         <v>938372.0</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="42">
         <f t="shared" si="3"/>
         <v>0.08232064591</v>
       </c>
       <c r="G26" s="20"/>
-      <c r="H26" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="38">
+      <c r="H26" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="41">
         <v>2.4692818E7</v>
       </c>
-      <c r="J26" s="38">
+      <c r="J26" s="41">
         <v>2.2652286E7</v>
       </c>
-      <c r="K26" s="39">
+      <c r="K26" s="42">
         <f t="shared" si="4"/>
         <v>-0.08263665978</v>
       </c>
       <c r="L26" s="20"/>
-      <c r="M26" s="41">
+      <c r="M26" s="44">
         <v>0.023</v>
       </c>
-      <c r="N26" s="41">
+      <c r="N26" s="44">
         <v>0.026</v>
       </c>
-      <c r="O26" s="39">
+      <c r="O26" s="42">
         <f t="shared" si="5"/>
         <v>0.003</v>
       </c>
       <c r="P26" s="20"/>
-      <c r="Q26" s="42">
+      <c r="Q26" s="45">
         <v>117.4</v>
       </c>
-      <c r="R26" s="42">
+      <c r="R26" s="45">
         <v>112.4</v>
       </c>
-      <c r="S26" s="43">
+      <c r="S26" s="46">
         <v>-5.01</v>
       </c>
       <c r="T26" s="20"/>
-      <c r="U26" s="38">
+      <c r="U26" s="41">
         <v>2.1028777E7</v>
       </c>
-      <c r="V26" s="38">
+      <c r="V26" s="41">
         <v>2.0150155E7</v>
       </c>
-      <c r="W26" s="39">
+      <c r="W26" s="42">
         <f t="shared" si="6"/>
         <v>-0.04178188774</v>
       </c>
       <c r="X26" s="20"/>
-      <c r="Y26" s="44">
+      <c r="Y26" s="47">
         <f t="shared" ref="Y26:Z26" si="54">U26/D26</f>
         <v>24.25464475</v>
       </c>
-      <c r="Z26" s="44">
+      <c r="Z26" s="47">
         <f t="shared" si="54"/>
         <v>21.47352542</v>
       </c>
-      <c r="AA26" s="39">
+      <c r="AA26" s="42">
         <f t="shared" si="8"/>
         <v>-0.1146633709</v>
       </c>
       <c r="AB26" s="20"/>
-      <c r="AC26" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD26" s="38">
+      <c r="AC26" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD26" s="41">
         <v>2.1028777E7</v>
       </c>
-      <c r="AE26" s="38">
+      <c r="AE26" s="41">
         <v>2.0150155E7</v>
       </c>
-      <c r="AF26" s="39">
+      <c r="AF26" s="42">
         <f t="shared" si="9"/>
         <v>-0.04178188774</v>
       </c>
       <c r="AG26" s="20"/>
-      <c r="AH26" s="44">
+      <c r="AH26" s="47">
         <f t="shared" ref="AH26:AI26" si="55">AD26/D26</f>
         <v>24.25464475</v>
       </c>
-      <c r="AI26" s="44">
+      <c r="AI26" s="47">
         <f t="shared" si="55"/>
         <v>21.47352542</v>
       </c>
-      <c r="AJ26" s="39">
+      <c r="AJ26" s="42">
         <f t="shared" si="11"/>
         <v>-0.1146633709</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>46</v>
+      <c r="A27" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>31</v>
       </c>
       <c r="C27" s="20"/>
-      <c r="D27" s="38">
+      <c r="D27" s="41">
         <v>2499967.0</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="41">
         <v>2522273.0</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="42">
         <f t="shared" si="3"/>
         <v>0.008922517777</v>
       </c>
       <c r="G27" s="20"/>
-      <c r="H27" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="I27" s="38">
+      <c r="H27" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="41">
         <v>1.064624439E9</v>
       </c>
-      <c r="J27" s="38">
+      <c r="J27" s="41">
         <v>9.87910794E8</v>
       </c>
-      <c r="K27" s="39">
+      <c r="K27" s="42">
         <f t="shared" si="4"/>
         <v>-0.07205700169</v>
       </c>
       <c r="L27" s="20"/>
-      <c r="M27" s="41">
+      <c r="M27" s="44">
         <v>0.025</v>
       </c>
-      <c r="N27" s="41">
+      <c r="N27" s="44">
         <v>0.03</v>
       </c>
-      <c r="O27" s="39">
+      <c r="O27" s="42">
         <f t="shared" si="5"/>
         <v>0.005</v>
       </c>
       <c r="P27" s="20"/>
-      <c r="Q27" s="42">
+      <c r="Q27" s="45">
         <v>116.6</v>
       </c>
-      <c r="R27" s="42">
+      <c r="R27" s="45">
         <v>119.5</v>
       </c>
-      <c r="S27" s="43">
+      <c r="S27" s="46">
         <v>2.87</v>
       </c>
       <c r="T27" s="20"/>
-      <c r="U27" s="38">
+      <c r="U27" s="41">
         <v>9.13105964E8</v>
       </c>
-      <c r="V27" s="38">
+      <c r="V27" s="41">
         <v>8.2695346E8</v>
       </c>
-      <c r="W27" s="39">
+      <c r="W27" s="42">
         <f t="shared" si="6"/>
         <v>-0.0943510473</v>
       </c>
       <c r="X27" s="20"/>
-      <c r="Y27" s="44">
+      <c r="Y27" s="47">
         <f t="shared" ref="Y27:Z27" si="56">U27/D27</f>
         <v>365.2472069</v>
       </c>
-      <c r="Z27" s="44">
+      <c r="Z27" s="47">
         <f t="shared" si="56"/>
         <v>327.86041</v>
       </c>
-      <c r="AA27" s="39">
+      <c r="AA27" s="42">
         <f t="shared" si="8"/>
         <v>-0.1023602539</v>
       </c>
       <c r="AB27" s="20"/>
-      <c r="AC27" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD27" s="38">
+      <c r="AC27" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD27" s="41">
         <v>1.04617168E8</v>
       </c>
-      <c r="AE27" s="38">
+      <c r="AE27" s="41">
         <v>9.4746428E7</v>
       </c>
-      <c r="AF27" s="39">
+      <c r="AF27" s="42">
         <f t="shared" si="9"/>
         <v>-0.09435105336</v>
       </c>
       <c r="AG27" s="20"/>
-      <c r="AH27" s="44">
+      <c r="AH27" s="47">
         <f t="shared" ref="AH27:AI27" si="57">AD27/D27</f>
         <v>41.84741959</v>
       </c>
-      <c r="AI27" s="44">
+      <c r="AI27" s="47">
         <f t="shared" si="57"/>
         <v>37.56390684</v>
       </c>
-      <c r="AJ27" s="39">
+      <c r="AJ27" s="42">
         <f t="shared" si="11"/>
         <v>-0.1023602599</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>47</v>
+      <c r="A28" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>32</v>
       </c>
       <c r="C28" s="20"/>
-      <c r="D28" s="38">
+      <c r="D28" s="41">
         <v>3895148.0</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="41">
         <v>3855541.0</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="42">
         <f t="shared" si="3"/>
         <v>-0.01016829142</v>
       </c>
       <c r="G28" s="20"/>
-      <c r="H28" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" s="38">
+      <c r="H28" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="41">
         <v>1.33551913E8</v>
       </c>
-      <c r="J28" s="38">
+      <c r="J28" s="41">
         <v>1.41180751E8</v>
       </c>
-      <c r="K28" s="39">
+      <c r="K28" s="42">
         <f t="shared" si="4"/>
         <v>0.05712264114</v>
       </c>
       <c r="L28" s="20"/>
-      <c r="M28" s="41">
+      <c r="M28" s="44">
         <v>0.016</v>
       </c>
-      <c r="N28" s="41">
+      <c r="N28" s="44">
         <v>0.012</v>
       </c>
-      <c r="O28" s="39">
+      <c r="O28" s="42">
         <f t="shared" si="5"/>
         <v>-0.004</v>
       </c>
       <c r="P28" s="20"/>
-      <c r="Q28" s="42">
+      <c r="Q28" s="45">
         <v>112.9</v>
       </c>
-      <c r="R28" s="42">
+      <c r="R28" s="45">
         <v>112.5</v>
       </c>
-      <c r="S28" s="43">
+      <c r="S28" s="46">
         <v>-0.44</v>
       </c>
       <c r="T28" s="20"/>
-      <c r="U28" s="38">
+      <c r="U28" s="41">
         <v>1.18261552E8</v>
       </c>
-      <c r="V28" s="38">
+      <c r="V28" s="41">
         <v>1.25511103E8</v>
       </c>
-      <c r="W28" s="39">
+      <c r="W28" s="42">
         <f t="shared" si="6"/>
         <v>0.06130099662</v>
       </c>
       <c r="X28" s="20"/>
-      <c r="Y28" s="44">
+      <c r="Y28" s="47">
         <f t="shared" ref="Y28:Z28" si="58">U28/D28</f>
         <v>30.36124738</v>
       </c>
-      <c r="Z28" s="44">
+      <c r="Z28" s="47">
         <f t="shared" si="58"/>
         <v>32.55343491</v>
       </c>
-      <c r="AA28" s="39">
+      <c r="AA28" s="42">
         <f t="shared" si="8"/>
         <v>0.07220347401</v>
       </c>
       <c r="AB28" s="20"/>
-      <c r="AC28" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD28" s="38">
+      <c r="AC28" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD28" s="41">
         <v>1.18261552E8</v>
       </c>
-      <c r="AE28" s="38">
+      <c r="AE28" s="41">
         <v>1.25511103E8</v>
       </c>
-      <c r="AF28" s="39">
+      <c r="AF28" s="42">
         <f t="shared" si="9"/>
         <v>0.06130099662</v>
       </c>
       <c r="AG28" s="20"/>
-      <c r="AH28" s="44">
+      <c r="AH28" s="47">
         <f t="shared" ref="AH28:AI28" si="59">AD28/D28</f>
         <v>30.36124738</v>
       </c>
-      <c r="AI28" s="44">
+      <c r="AI28" s="47">
         <f t="shared" si="59"/>
         <v>32.55343491</v>
       </c>
-      <c r="AJ28" s="39">
+      <c r="AJ28" s="42">
         <f t="shared" si="11"/>
         <v>0.07220347401</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>47</v>
+      <c r="A29" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>32</v>
       </c>
       <c r="C29" s="20"/>
-      <c r="D29" s="38">
+      <c r="D29" s="41">
         <v>1537000.0</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="41">
         <v>1788036.0</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="42">
         <f t="shared" si="3"/>
         <v>0.1633285621</v>
       </c>
       <c r="G29" s="20"/>
-      <c r="H29" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="38">
+      <c r="H29" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="41">
         <v>9.8495359E7</v>
       </c>
-      <c r="J29" s="38">
+      <c r="J29" s="41">
         <v>9.4576718E7</v>
       </c>
-      <c r="K29" s="39">
+      <c r="K29" s="42">
         <f t="shared" si="4"/>
         <v>-0.0397850319</v>
       </c>
       <c r="L29" s="20"/>
-      <c r="M29" s="41">
+      <c r="M29" s="44">
         <v>0.01</v>
       </c>
-      <c r="N29" s="41">
+      <c r="N29" s="44">
         <v>0.017</v>
       </c>
-      <c r="O29" s="39">
+      <c r="O29" s="42">
         <f t="shared" si="5"/>
         <v>0.007</v>
       </c>
       <c r="P29" s="20"/>
-      <c r="Q29" s="42">
+      <c r="Q29" s="45">
         <v>113.9</v>
       </c>
-      <c r="R29" s="42">
+      <c r="R29" s="45">
         <v>112.2</v>
       </c>
-      <c r="S29" s="43">
+      <c r="S29" s="46">
         <v>-1.68</v>
       </c>
       <c r="T29" s="20"/>
-      <c r="U29" s="38">
+      <c r="U29" s="41">
         <v>8.649779E7</v>
       </c>
-      <c r="V29" s="38">
+      <c r="V29" s="41">
         <v>8.4303303E7</v>
       </c>
-      <c r="W29" s="39">
+      <c r="W29" s="42">
         <f t="shared" si="6"/>
         <v>-0.0253704401</v>
       </c>
       <c r="X29" s="20"/>
-      <c r="Y29" s="44">
+      <c r="Y29" s="47">
         <f t="shared" ref="Y29:Z29" si="60">U29/D29</f>
         <v>56.27702668</v>
       </c>
-      <c r="Z29" s="44">
+      <c r="Z29" s="47">
         <f t="shared" si="60"/>
         <v>47.14854902</v>
       </c>
-      <c r="AA29" s="39">
+      <c r="AA29" s="42">
         <f t="shared" si="8"/>
         <v>-0.1622061113</v>
       </c>
       <c r="AB29" s="20"/>
-      <c r="AC29" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD29" s="38">
+      <c r="AC29" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD29" s="41">
         <v>8.649779E7</v>
       </c>
-      <c r="AE29" s="38">
+      <c r="AE29" s="41">
         <v>8.4303303E7</v>
       </c>
-      <c r="AF29" s="39">
+      <c r="AF29" s="42">
         <f t="shared" si="9"/>
         <v>-0.0253704401</v>
       </c>
       <c r="AG29" s="20"/>
-      <c r="AH29" s="44">
+      <c r="AH29" s="47">
         <f t="shared" ref="AH29:AI29" si="61">AD29/D29</f>
         <v>56.27702668</v>
       </c>
-      <c r="AI29" s="44">
+      <c r="AI29" s="47">
         <f t="shared" si="61"/>
         <v>47.14854902</v>
       </c>
-      <c r="AJ29" s="39">
+      <c r="AJ29" s="42">
         <f t="shared" si="11"/>
         <v>-0.1622061113</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>47</v>
+      <c r="A30" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>32</v>
       </c>
       <c r="C30" s="20"/>
-      <c r="D30" s="38">
+      <c r="D30" s="41">
         <v>9128000.0</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="41">
         <v>1.1058991E7</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="42">
         <f t="shared" si="3"/>
         <v>0.2115459027</v>
       </c>
       <c r="G30" s="20"/>
-      <c r="H30" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" s="38">
+      <c r="H30" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="41">
         <v>6.25580952E8</v>
       </c>
-      <c r="J30" s="38">
+      <c r="J30" s="41">
         <v>5.80951209E8</v>
       </c>
-      <c r="K30" s="39">
+      <c r="K30" s="42">
         <f t="shared" si="4"/>
         <v>-0.07134127543</v>
       </c>
       <c r="L30" s="20"/>
-      <c r="M30" s="41">
+      <c r="M30" s="44">
         <v>0.01</v>
       </c>
-      <c r="N30" s="41">
+      <c r="N30" s="44">
         <v>0.017</v>
       </c>
-      <c r="O30" s="39">
+      <c r="O30" s="42">
         <f t="shared" si="5"/>
         <v>0.007</v>
       </c>
       <c r="P30" s="20"/>
-      <c r="Q30" s="42">
+      <c r="Q30" s="45">
         <v>113.9</v>
       </c>
-      <c r="R30" s="42">
+      <c r="R30" s="45">
         <v>112.2</v>
       </c>
-      <c r="S30" s="43">
+      <c r="S30" s="46">
         <v>-1.68</v>
       </c>
       <c r="T30" s="20"/>
-      <c r="U30" s="38">
+      <c r="U30" s="41">
         <v>5.49379889E8</v>
       </c>
-      <c r="V30" s="38">
+      <c r="V30" s="41">
         <v>5.17845268E8</v>
       </c>
-      <c r="W30" s="39">
+      <c r="W30" s="42">
         <f t="shared" si="6"/>
         <v>-0.05740039203</v>
       </c>
       <c r="X30" s="20"/>
-      <c r="Y30" s="44">
+      <c r="Y30" s="47">
         <f t="shared" ref="Y30:Z30" si="62">U30/D30</f>
         <v>60.18622798</v>
       </c>
-      <c r="Z30" s="44">
+      <c r="Z30" s="47">
         <f t="shared" si="62"/>
         <v>46.8257247</v>
       </c>
-      <c r="AA30" s="39">
+      <c r="AA30" s="42">
         <f t="shared" si="8"/>
         <v>-0.2219860545</v>
       </c>
       <c r="AB30" s="20"/>
-      <c r="AC30" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD30" s="38">
+      <c r="AC30" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD30" s="41">
         <v>5.49379889E8</v>
       </c>
-      <c r="AE30" s="38">
+      <c r="AE30" s="41">
         <v>5.17845268E8</v>
       </c>
-      <c r="AF30" s="39">
+      <c r="AF30" s="42">
         <f t="shared" si="9"/>
         <v>-0.05740039203</v>
       </c>
       <c r="AG30" s="20"/>
-      <c r="AH30" s="44">
+      <c r="AH30" s="47">
         <f t="shared" ref="AH30:AI30" si="63">AD30/D30</f>
         <v>60.18622798</v>
       </c>
-      <c r="AI30" s="44">
+      <c r="AI30" s="47">
         <f t="shared" si="63"/>
         <v>46.8257247</v>
       </c>
-      <c r="AJ30" s="39">
+      <c r="AJ30" s="42">
         <f t="shared" si="11"/>
         <v>-0.2219860545</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>48</v>
+      <c r="A31" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="C31" s="20"/>
-      <c r="D31" s="38">
+      <c r="D31" s="41">
         <v>4184878.0</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="41">
         <v>4549883.0</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="42">
         <f t="shared" si="3"/>
         <v>0.08721998586</v>
       </c>
       <c r="G31" s="20"/>
-      <c r="H31" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="38">
+      <c r="H31" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="41">
         <v>1.293644E8</v>
       </c>
-      <c r="J31" s="38">
+      <c r="J31" s="41">
         <v>1.17767E8</v>
       </c>
-      <c r="K31" s="39">
+      <c r="K31" s="42">
         <f t="shared" si="4"/>
         <v>-0.08964908429</v>
       </c>
       <c r="L31" s="20"/>
-      <c r="M31" s="41">
+      <c r="M31" s="44">
         <v>0.017</v>
       </c>
-      <c r="N31" s="41">
+      <c r="N31" s="44">
         <v>0.007</v>
       </c>
-      <c r="O31" s="39">
+      <c r="O31" s="42">
         <f t="shared" si="5"/>
         <v>-0.01</v>
       </c>
       <c r="P31" s="20"/>
-      <c r="Q31" s="42">
+      <c r="Q31" s="45">
         <v>108.2</v>
       </c>
-      <c r="R31" s="42">
+      <c r="R31" s="45">
         <v>103.1</v>
       </c>
-      <c r="S31" s="43">
+      <c r="S31" s="46">
         <v>-5.14</v>
       </c>
       <c r="T31" s="20"/>
-      <c r="U31" s="38">
+      <c r="U31" s="41">
         <v>1.19511684E8</v>
       </c>
-      <c r="V31" s="38">
+      <c r="V31" s="41">
         <v>1.14220979E8</v>
       </c>
-      <c r="W31" s="39">
+      <c r="W31" s="42">
         <f t="shared" si="6"/>
         <v>-0.04426935361</v>
       </c>
       <c r="X31" s="20"/>
-      <c r="Y31" s="44">
+      <c r="Y31" s="47">
         <f t="shared" ref="Y31:Z31" si="64">U31/D31</f>
         <v>28.5579852</v>
       </c>
-      <c r="Z31" s="44">
+      <c r="Z31" s="47">
         <f t="shared" si="64"/>
         <v>25.1041574</v>
       </c>
-      <c r="AA31" s="39">
+      <c r="AA31" s="42">
         <f t="shared" si="8"/>
         <v>-0.1209408778</v>
       </c>
       <c r="AB31" s="20"/>
-      <c r="AC31" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD31" s="38">
+      <c r="AC31" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD31" s="41">
         <v>1.19511684E8</v>
       </c>
-      <c r="AE31" s="38">
+      <c r="AE31" s="41">
         <v>1.14220979E8</v>
       </c>
-      <c r="AF31" s="39">
+      <c r="AF31" s="42">
         <f t="shared" si="9"/>
         <v>-0.04426935361</v>
       </c>
       <c r="AG31" s="20"/>
-      <c r="AH31" s="44">
+      <c r="AH31" s="47">
         <f t="shared" ref="AH31:AI31" si="65">AD31/D31</f>
         <v>28.5579852</v>
       </c>
-      <c r="AI31" s="44">
+      <c r="AI31" s="47">
         <f t="shared" si="65"/>
         <v>25.1041574</v>
       </c>
-      <c r="AJ31" s="39">
+      <c r="AJ31" s="42">
         <f t="shared" si="11"/>
         <v>-0.1209408778</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>48</v>
+      <c r="A32" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="C32" s="20"/>
-      <c r="D32" s="38">
+      <c r="D32" s="41">
         <v>1.0758E7</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="41">
         <v>1.2194153E7</v>
       </c>
-      <c r="F32" s="39">
+      <c r="F32" s="42">
         <f t="shared" si="3"/>
         <v>0.1334962818</v>
       </c>
       <c r="G32" s="20"/>
-      <c r="H32" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="I32" s="38">
+      <c r="H32" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" s="41">
         <v>6.82569359E8</v>
       </c>
-      <c r="J32" s="38">
+      <c r="J32" s="41">
         <v>6.94359079E8</v>
       </c>
-      <c r="K32" s="39">
+      <c r="K32" s="42">
         <f t="shared" si="4"/>
         <v>0.0172725597</v>
       </c>
       <c r="L32" s="20"/>
-      <c r="M32" s="41">
+      <c r="M32" s="44">
         <v>0.02</v>
       </c>
-      <c r="N32" s="41">
+      <c r="N32" s="44">
         <v>0.025</v>
       </c>
-      <c r="O32" s="39">
+      <c r="O32" s="42">
         <f t="shared" si="5"/>
         <v>0.005</v>
       </c>
       <c r="P32" s="20"/>
-      <c r="Q32" s="42">
+      <c r="Q32" s="45">
         <v>125.3</v>
       </c>
-      <c r="R32" s="42">
+      <c r="R32" s="45">
         <v>122.5</v>
       </c>
-      <c r="S32" s="43">
+      <c r="S32" s="46">
         <v>-2.78</v>
       </c>
       <c r="T32" s="20"/>
-      <c r="U32" s="38">
+      <c r="U32" s="41">
         <v>5.44617914E8</v>
       </c>
-      <c r="V32" s="38">
+      <c r="V32" s="41">
         <v>5.66593782E8</v>
       </c>
-      <c r="W32" s="39">
+      <c r="W32" s="42">
         <f t="shared" si="6"/>
         <v>0.04035098265</v>
       </c>
       <c r="X32" s="20"/>
-      <c r="Y32" s="44">
+      <c r="Y32" s="47">
         <f t="shared" ref="Y32:Z32" si="66">U32/D32</f>
         <v>50.62445752</v>
       </c>
-      <c r="Z32" s="44">
+      <c r="Z32" s="47">
         <f t="shared" si="66"/>
         <v>46.4643819</v>
       </c>
-      <c r="AA32" s="39">
+      <c r="AA32" s="42">
         <f t="shared" si="8"/>
         <v>-0.0821752137</v>
       </c>
       <c r="AB32" s="20"/>
-      <c r="AC32" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD32" s="38">
+      <c r="AC32" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD32" s="41">
         <v>6.11485711E8</v>
       </c>
-      <c r="AE32" s="38">
+      <c r="AE32" s="41">
         <v>6.36159761E8</v>
       </c>
-      <c r="AF32" s="39">
+      <c r="AF32" s="42">
         <f t="shared" si="9"/>
         <v>0.04035098377</v>
       </c>
       <c r="AG32" s="20"/>
-      <c r="AH32" s="44">
+      <c r="AH32" s="47">
         <f t="shared" ref="AH32:AI32" si="67">AD32/D32</f>
         <v>56.84009212</v>
       </c>
-      <c r="AI32" s="44">
+      <c r="AI32" s="47">
         <f t="shared" si="67"/>
         <v>52.16924546</v>
       </c>
-      <c r="AJ32" s="39">
+      <c r="AJ32" s="42">
         <f t="shared" si="11"/>
         <v>-0.08217521271</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="36"/>
-      <c r="Y33" s="36"/>
-      <c r="Z33" s="36"/>
-      <c r="AA33" s="36"/>
-      <c r="AB33" s="36"/>
-      <c r="AC33" s="36"/>
-      <c r="AD33" s="36"/>
-      <c r="AE33" s="36"/>
-      <c r="AF33" s="36"/>
-      <c r="AG33" s="36"/>
-      <c r="AH33" s="36"/>
-      <c r="AI33" s="36"/>
-      <c r="AJ33" s="36"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="39"/>
+      <c r="AA33" s="39"/>
+      <c r="AB33" s="39"/>
+      <c r="AC33" s="39"/>
+      <c r="AD33" s="39"/>
+      <c r="AE33" s="39"/>
+      <c r="AF33" s="39"/>
+      <c r="AG33" s="39"/>
+      <c r="AH33" s="39"/>
+      <c r="AI33" s="39"/>
+      <c r="AJ33" s="39"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="36"/>
-      <c r="AC34" s="36"/>
-      <c r="AD34" s="36"/>
-      <c r="AE34" s="36"/>
-      <c r="AF34" s="36"/>
-      <c r="AG34" s="36"/>
-      <c r="AH34" s="36"/>
-      <c r="AI34" s="36"/>
-      <c r="AJ34" s="36"/>
+      <c r="A34" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="39"/>
+      <c r="Z34" s="39"/>
+      <c r="AA34" s="39"/>
+      <c r="AB34" s="39"/>
+      <c r="AC34" s="39"/>
+      <c r="AD34" s="39"/>
+      <c r="AE34" s="39"/>
+      <c r="AF34" s="39"/>
+      <c r="AG34" s="39"/>
+      <c r="AH34" s="39"/>
+      <c r="AI34" s="39"/>
+      <c r="AJ34" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -32822,157 +32835,157 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.71"/>
-    <col customWidth="1" min="2" max="2" width="12.14"/>
-    <col customWidth="1" min="3" max="3" width="17.57"/>
-    <col customWidth="1" min="4" max="4" width="113.57"/>
+    <col customWidth="1" min="1" max="1" width="12.0"/>
+    <col customWidth="1" min="2" max="2" width="10.63"/>
+    <col customWidth="1" min="3" max="3" width="15.38"/>
+    <col customWidth="1" min="4" max="4" width="99.38"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>57</v>
+      <c r="A1" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="49">
+      <c r="A2" s="50">
         <v>43560.0</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="51">
+      <c r="B2" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="52">
         <v>2018.0</v>
       </c>
-      <c r="D2" s="50" t="s">
-        <v>60</v>
+      <c r="D2" s="51" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="49">
+      <c r="A3" s="50">
         <v>43941.0</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="51">
+      <c r="B3" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="52">
         <v>2018.0</v>
       </c>
-      <c r="D3" s="50" t="s">
-        <v>62</v>
+      <c r="D3" s="51" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="56"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="56"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
     </row>
     <row r="20">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
